--- a/raw_data/20200818_saline/20200818_Sensor0_Test_80.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_80.xlsx
@@ -1,765 +1,1181 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC2CF95-478C-420F-9E4B-6DAE4E51BB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>71102.908364</v>
+        <v>71102.908364000003</v>
       </c>
       <c r="B2" s="1">
-        <v>19.750808</v>
+        <v>19.750807999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>903.298000</v>
+        <v>903.298</v>
       </c>
       <c r="D2" s="1">
-        <v>-189.326000</v>
+        <v>-189.32599999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>71113.319391</v>
+        <v>71113.319390999997</v>
       </c>
       <c r="G2" s="1">
-        <v>19.753700</v>
+        <v>19.753699999999998</v>
       </c>
       <c r="H2" s="1">
-        <v>919.143000</v>
+        <v>919.14300000000003</v>
       </c>
       <c r="I2" s="1">
-        <v>-161.388000</v>
+        <v>-161.38800000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>71123.799328</v>
+        <v>71123.799327999994</v>
       </c>
       <c r="L2" s="1">
-        <v>19.756611</v>
+        <v>19.756610999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>941.303000</v>
+        <v>941.303</v>
       </c>
       <c r="N2" s="1">
-        <v>-116.574000</v>
+        <v>-116.574</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>71134.334883</v>
+        <v>71134.334883000003</v>
       </c>
       <c r="Q2" s="1">
-        <v>19.759537</v>
+        <v>19.759537000000002</v>
       </c>
       <c r="R2" s="1">
-        <v>948.131000</v>
+        <v>948.13099999999997</v>
       </c>
       <c r="S2" s="1">
-        <v>-102.129000</v>
+        <v>-102.129</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>71144.685892</v>
+        <v>71144.685891999994</v>
       </c>
       <c r="V2" s="1">
-        <v>19.762413</v>
+        <v>19.762412999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>954.800000</v>
+        <v>954.8</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.997600</v>
+        <v>-88.997600000000006</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>71154.793373</v>
+        <v>71154.793372999993</v>
       </c>
       <c r="AA2" s="1">
-        <v>19.765220</v>
+        <v>19.765219999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>962.351000</v>
+        <v>962.351</v>
       </c>
       <c r="AC2" s="1">
-        <v>-79.925400</v>
+        <v>-79.925399999999996</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>71165.055065</v>
+        <v>71165.055064999993</v>
       </c>
       <c r="AF2" s="1">
-        <v>19.768071</v>
+        <v>19.768070999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>967.484000</v>
+        <v>967.48400000000004</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.528500</v>
+        <v>-79.528499999999994</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>71175.545452</v>
+        <v>71175.545452000006</v>
       </c>
       <c r="AK2" s="1">
         <v>19.770985</v>
       </c>
       <c r="AL2" s="1">
-        <v>975.574000</v>
+        <v>975.57399999999996</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.245400</v>
+        <v>-87.245400000000004</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>71185.820575</v>
+        <v>71185.820575000005</v>
       </c>
       <c r="AP2" s="1">
-        <v>19.773839</v>
+        <v>19.773838999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>984.819000</v>
+        <v>984.81899999999996</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.033000</v>
+        <v>-102.033</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>71196.754383</v>
+        <v>71196.754383000007</v>
       </c>
       <c r="AU2" s="1">
-        <v>19.776876</v>
+        <v>19.776876000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>996.174000</v>
+        <v>996.17399999999998</v>
       </c>
       <c r="AW2" s="1">
-        <v>-123.414000</v>
+        <v>-123.414</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>71207.982818</v>
+        <v>71207.982818000004</v>
       </c>
       <c r="AZ2" s="1">
         <v>19.779995</v>
       </c>
       <c r="BA2" s="1">
-        <v>1005.760000</v>
+        <v>1005.76</v>
       </c>
       <c r="BB2" s="1">
-        <v>-141.986000</v>
+        <v>-141.98599999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>71218.981107</v>
       </c>
       <c r="BE2" s="1">
-        <v>19.783050</v>
+        <v>19.783049999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1050.990000</v>
+        <v>1050.99</v>
       </c>
       <c r="BG2" s="1">
-        <v>-226.239000</v>
+        <v>-226.239</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>71229.990804</v>
+        <v>71229.990804000001</v>
       </c>
       <c r="BJ2" s="1">
         <v>19.786109</v>
       </c>
       <c r="BK2" s="1">
-        <v>1130.550000</v>
+        <v>1130.55</v>
       </c>
       <c r="BL2" s="1">
-        <v>-360.908000</v>
+        <v>-360.90800000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>71241.372996</v>
+        <v>71241.372996000006</v>
       </c>
       <c r="BO2" s="1">
-        <v>19.789270</v>
+        <v>19.789269999999998</v>
       </c>
       <c r="BP2" s="1">
-        <v>1261.980000</v>
+        <v>1261.98</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-567.847000</v>
+        <v>-567.84699999999998</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>71253.268550</v>
+        <v>71253.268549999993</v>
       </c>
       <c r="BT2" s="1">
-        <v>19.792575</v>
+        <v>19.792574999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1408.900000</v>
+        <v>1408.9</v>
       </c>
       <c r="BV2" s="1">
-        <v>-787.707000</v>
+        <v>-787.70699999999999</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>71264.293126</v>
+        <v>71264.293126000004</v>
       </c>
       <c r="BY2" s="1">
-        <v>19.795637</v>
+        <v>19.795636999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1568.710000</v>
+        <v>1568.71</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1017.340000</v>
+        <v>-1017.34</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>71275.240328</v>
       </c>
       <c r="CD2" s="1">
-        <v>19.798678</v>
+        <v>19.798677999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1971.090000</v>
+        <v>1971.09</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1553.710000</v>
+        <v>-1553.71</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>71103.292732</v>
+        <v>71103.292732000002</v>
       </c>
       <c r="B3" s="1">
-        <v>19.750915</v>
+        <v>19.750914999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>903.453000</v>
+        <v>903.45299999999997</v>
       </c>
       <c r="D3" s="1">
-        <v>-189.591000</v>
+        <v>-189.59100000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>71114.023214</v>
+        <v>71114.023214000001</v>
       </c>
       <c r="G3" s="1">
         <v>19.753895</v>
       </c>
       <c r="H3" s="1">
-        <v>919.631000</v>
+        <v>919.63099999999997</v>
       </c>
       <c r="I3" s="1">
-        <v>-161.307000</v>
+        <v>-161.30699999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>71124.212495</v>
@@ -768,483 +1184,483 @@
         <v>19.756726</v>
       </c>
       <c r="M3" s="1">
-        <v>941.365000</v>
+        <v>941.36500000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-116.532000</v>
+        <v>-116.532</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>71134.754962</v>
+        <v>71134.754962000006</v>
       </c>
       <c r="Q3" s="1">
-        <v>19.759654</v>
+        <v>19.759654000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>948.034000</v>
+        <v>948.03399999999999</v>
       </c>
       <c r="S3" s="1">
-        <v>-102.114000</v>
+        <v>-102.114</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>71145.042981</v>
+        <v>71145.042981000006</v>
       </c>
       <c r="V3" s="1">
-        <v>19.762512</v>
+        <v>19.762512000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>954.706000</v>
+        <v>954.70600000000002</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.975500</v>
+        <v>-88.975499999999997</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>71155.177239</v>
+        <v>71155.177238999997</v>
       </c>
       <c r="AA3" s="1">
-        <v>19.765327</v>
+        <v>19.765326999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>962.358000</v>
+        <v>962.35799999999995</v>
       </c>
       <c r="AC3" s="1">
-        <v>-79.877400</v>
+        <v>-79.877399999999994</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>71165.436489</v>
       </c>
       <c r="AF3" s="1">
-        <v>19.768177</v>
+        <v>19.768177000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>967.458000</v>
+        <v>967.45799999999997</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.523200</v>
+        <v>-79.523200000000003</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>71175.972507</v>
+        <v>71175.972506999999</v>
       </c>
       <c r="AK3" s="1">
         <v>19.771103</v>
       </c>
       <c r="AL3" s="1">
-        <v>975.594000</v>
+        <v>975.59400000000005</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.262200</v>
+        <v>-87.262200000000007</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>71186.324510</v>
+        <v>71186.324510000006</v>
       </c>
       <c r="AP3" s="1">
-        <v>19.773979</v>
+        <v>19.773979000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>984.788000</v>
+        <v>984.78800000000001</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.041000</v>
+        <v>-102.041</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>71197.208224</v>
+        <v>71197.208224000002</v>
       </c>
       <c r="AU3" s="1">
         <v>19.777002</v>
       </c>
       <c r="AV3" s="1">
-        <v>996.169000</v>
+        <v>996.16899999999998</v>
       </c>
       <c r="AW3" s="1">
-        <v>-123.403000</v>
+        <v>-123.40300000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>71208.344400</v>
+        <v>71208.344400000002</v>
       </c>
       <c r="AZ3" s="1">
         <v>19.780096</v>
       </c>
       <c r="BA3" s="1">
-        <v>1005.770000</v>
+        <v>1005.77</v>
       </c>
       <c r="BB3" s="1">
-        <v>-141.995000</v>
+        <v>-141.995</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>71219.343683</v>
+        <v>71219.343682999999</v>
       </c>
       <c r="BE3" s="1">
         <v>19.783151</v>
       </c>
       <c r="BF3" s="1">
-        <v>1051.010000</v>
+        <v>1051.01</v>
       </c>
       <c r="BG3" s="1">
-        <v>-226.221000</v>
+        <v>-226.221</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>71230.366804</v>
+        <v>71230.366804000005</v>
       </c>
       <c r="BJ3" s="1">
         <v>19.786213</v>
       </c>
       <c r="BK3" s="1">
-        <v>1130.550000</v>
+        <v>1130.55</v>
       </c>
       <c r="BL3" s="1">
-        <v>-360.918000</v>
+        <v>-360.91800000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>71242.210243</v>
+        <v>71242.210242999994</v>
       </c>
       <c r="BO3" s="1">
         <v>19.789503</v>
       </c>
       <c r="BP3" s="1">
-        <v>1261.950000</v>
+        <v>1261.95</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-567.873000</v>
+        <v>-567.87300000000005</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>71253.710980</v>
+        <v>71253.710980000003</v>
       </c>
       <c r="BT3" s="1">
         <v>19.792697</v>
       </c>
       <c r="BU3" s="1">
-        <v>1408.920000</v>
+        <v>1408.92</v>
       </c>
       <c r="BV3" s="1">
-        <v>-787.853000</v>
+        <v>-787.85299999999995</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>71264.757381</v>
+        <v>71264.757381000003</v>
       </c>
       <c r="BY3" s="1">
         <v>19.795766</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1568.730000</v>
+        <v>1568.73</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1017.420000</v>
+        <v>-1017.42</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>71275.835526</v>
+        <v>71275.835525999995</v>
       </c>
       <c r="CD3" s="1">
-        <v>19.798843</v>
+        <v>19.798843000000002</v>
       </c>
       <c r="CE3" s="1">
-        <v>1969.920000</v>
+        <v>1969.92</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1552.490000</v>
+        <v>-1552.49</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>71103.962330</v>
+        <v>71103.962329999995</v>
       </c>
       <c r="B4" s="1">
-        <v>19.751101</v>
+        <v>19.751100999999998</v>
       </c>
       <c r="C4" s="1">
-        <v>903.538000</v>
+        <v>903.53800000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-189.468000</v>
+        <v>-189.46799999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>71114.390718</v>
+        <v>71114.390717999995</v>
       </c>
       <c r="G4" s="1">
-        <v>19.753997</v>
+        <v>19.753996999999998</v>
       </c>
       <c r="H4" s="1">
-        <v>919.605000</v>
+        <v>919.60500000000002</v>
       </c>
       <c r="I4" s="1">
-        <v>-161.251000</v>
+        <v>-161.251</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>71124.556223</v>
+        <v>71124.556223000007</v>
       </c>
       <c r="L4" s="1">
-        <v>19.756821</v>
+        <v>19.756820999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>941.511000</v>
+        <v>941.51099999999997</v>
       </c>
       <c r="N4" s="1">
-        <v>-116.560000</v>
+        <v>-116.56</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>71135.101170</v>
+        <v>71135.101169999994</v>
       </c>
       <c r="Q4" s="1">
-        <v>19.759750</v>
+        <v>19.75975</v>
       </c>
       <c r="R4" s="1">
-        <v>948.047000</v>
+        <v>948.04700000000003</v>
       </c>
       <c r="S4" s="1">
-        <v>-102.056000</v>
+        <v>-102.056</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>71145.387699</v>
+        <v>71145.387698999999</v>
       </c>
       <c r="V4" s="1">
         <v>19.762608</v>
       </c>
       <c r="W4" s="1">
-        <v>954.922000</v>
+        <v>954.92200000000003</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.086400</v>
+        <v>-89.086399999999998</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>71155.602310</v>
+        <v>71155.602310000002</v>
       </c>
       <c r="AA4" s="1">
         <v>19.765445</v>
       </c>
       <c r="AB4" s="1">
-        <v>962.419000</v>
+        <v>962.41899999999998</v>
       </c>
       <c r="AC4" s="1">
-        <v>-79.914800</v>
+        <v>-79.9148</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>71165.877432</v>
+        <v>71165.877431999994</v>
       </c>
       <c r="AF4" s="1">
-        <v>19.768299</v>
+        <v>19.768298999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>967.478000</v>
+        <v>967.47799999999995</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.514900</v>
+        <v>-79.514899999999997</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>71176.305818</v>
+        <v>71176.305817999993</v>
       </c>
       <c r="AK4" s="1">
         <v>19.771196</v>
       </c>
       <c r="AL4" s="1">
-        <v>975.597000</v>
+        <v>975.59699999999998</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.264000</v>
+        <v>-87.263999999999996</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>71186.566062</v>
+        <v>71186.566061999998</v>
       </c>
       <c r="AP4" s="1">
-        <v>19.774046</v>
+        <v>19.774045999999998</v>
       </c>
       <c r="AQ4" s="1">
-        <v>984.800000</v>
+        <v>984.8</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.050000</v>
+        <v>-102.05</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>71197.590679</v>
+        <v>71197.590679000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>19.777109</v>
+        <v>19.777108999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>996.180000</v>
+        <v>996.18</v>
       </c>
       <c r="AW4" s="1">
-        <v>-123.398000</v>
+        <v>-123.398</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>71208.704000</v>
+        <v>71208.703999999998</v>
       </c>
       <c r="AZ4" s="1">
         <v>19.780196</v>
       </c>
       <c r="BA4" s="1">
-        <v>1005.740000</v>
+        <v>1005.74</v>
       </c>
       <c r="BB4" s="1">
-        <v>-142.016000</v>
+        <v>-142.01599999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>71220.070818</v>
+        <v>71220.070817999993</v>
       </c>
       <c r="BE4" s="1">
-        <v>19.783353</v>
+        <v>19.783353000000002</v>
       </c>
       <c r="BF4" s="1">
-        <v>1050.980000</v>
+        <v>1050.98</v>
       </c>
       <c r="BG4" s="1">
-        <v>-226.214000</v>
+        <v>-226.214</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>71231.118211</v>
+        <v>71231.118210999994</v>
       </c>
       <c r="BJ4" s="1">
-        <v>19.786422</v>
+        <v>19.786422000000002</v>
       </c>
       <c r="BK4" s="1">
-        <v>1130.580000</v>
+        <v>1130.58</v>
       </c>
       <c r="BL4" s="1">
-        <v>-360.924000</v>
+        <v>-360.92399999999998</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>71242.628370</v>
+        <v>71242.628370000006</v>
       </c>
       <c r="BO4" s="1">
-        <v>19.789619</v>
+        <v>19.789618999999998</v>
       </c>
       <c r="BP4" s="1">
-        <v>1261.940000</v>
+        <v>1261.94</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-567.889000</v>
+        <v>-567.88900000000001</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>71254.133075</v>
+        <v>71254.133075000005</v>
       </c>
       <c r="BT4" s="1">
-        <v>19.792815</v>
+        <v>19.792815000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1408.960000</v>
+        <v>1408.96</v>
       </c>
       <c r="BV4" s="1">
-        <v>-787.897000</v>
+        <v>-787.89700000000005</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>71265.189925</v>
+        <v>71265.189924999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>19.795886</v>
+        <v>19.795885999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1568.800000</v>
+        <v>1568.8</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1017.330000</v>
+        <v>-1017.33</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>71276.685211</v>
+        <v>71276.685211000004</v>
       </c>
       <c r="CD4" s="1">
-        <v>19.799079</v>
+        <v>19.799078999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1971.420000</v>
+        <v>1971.42</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1553.220000</v>
+        <v>-1553.22</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>71104.317465</v>
       </c>
@@ -1252,1298 +1668,1298 @@
         <v>19.751199</v>
       </c>
       <c r="C5" s="1">
-        <v>903.305000</v>
+        <v>903.30499999999995</v>
       </c>
       <c r="D5" s="1">
-        <v>-189.575000</v>
+        <v>-189.57499999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>71114.734445</v>
+        <v>71114.734444999995</v>
       </c>
       <c r="G5" s="1">
-        <v>19.754093</v>
+        <v>19.754093000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>919.594000</v>
+        <v>919.59400000000005</v>
       </c>
       <c r="I5" s="1">
-        <v>-161.525000</v>
+        <v>-161.52500000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>71124.904910</v>
+        <v>71124.904909999997</v>
       </c>
       <c r="L5" s="1">
-        <v>19.756918</v>
+        <v>19.756917999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>941.386000</v>
+        <v>941.38599999999997</v>
       </c>
       <c r="N5" s="1">
-        <v>-116.608000</v>
+        <v>-116.608</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>71135.450389</v>
+        <v>71135.450389000005</v>
       </c>
       <c r="Q5" s="1">
-        <v>19.759847</v>
+        <v>19.759847000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>948.101000</v>
+        <v>948.101</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.070000</v>
+        <v>-102.07</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>71145.816738</v>
+        <v>71145.816737999994</v>
       </c>
       <c r="V5" s="1">
-        <v>19.762727</v>
+        <v>19.762727000000002</v>
       </c>
       <c r="W5" s="1">
-        <v>954.805000</v>
+        <v>954.80499999999995</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.947400</v>
+        <v>-88.947400000000002</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>71155.894462</v>
+        <v>71155.894461999997</v>
       </c>
       <c r="AA5" s="1">
-        <v>19.765526</v>
+        <v>19.765526000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>962.349000</v>
+        <v>962.34900000000005</v>
       </c>
       <c r="AC5" s="1">
-        <v>-79.969200</v>
+        <v>-79.969200000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>71166.158168</v>
+        <v>71166.158167999994</v>
       </c>
       <c r="AF5" s="1">
-        <v>19.768377</v>
+        <v>19.768377000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>967.461000</v>
+        <v>967.46100000000001</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.569700</v>
+        <v>-79.569699999999997</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>71176.655993</v>
+        <v>71176.655992999993</v>
       </c>
       <c r="AK5" s="1">
         <v>19.771293</v>
       </c>
       <c r="AL5" s="1">
-        <v>975.561000</v>
+        <v>975.56100000000004</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.289800</v>
+        <v>-87.2898</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>71186.925661</v>
+        <v>71186.925661000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>19.774146</v>
+        <v>19.774146000000002</v>
       </c>
       <c r="AQ5" s="1">
-        <v>984.803000</v>
+        <v>984.803</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.042000</v>
+        <v>-102.042</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>71197.956191</v>
+        <v>71197.956191000005</v>
       </c>
       <c r="AU5" s="1">
-        <v>19.777210</v>
+        <v>19.77721</v>
       </c>
       <c r="AV5" s="1">
-        <v>996.157000</v>
+        <v>996.15700000000004</v>
       </c>
       <c r="AW5" s="1">
-        <v>-123.396000</v>
+        <v>-123.396</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>71209.419728</v>
+        <v>71209.419727999993</v>
       </c>
       <c r="AZ5" s="1">
-        <v>19.780394</v>
+        <v>19.780394000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1005.750000</v>
+        <v>1005.75</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.018000</v>
+        <v>-142.018</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>71220.449296</v>
+        <v>71220.449296000006</v>
       </c>
       <c r="BE5" s="1">
         <v>19.783458</v>
       </c>
       <c r="BF5" s="1">
-        <v>1051.000000</v>
+        <v>1051</v>
       </c>
       <c r="BG5" s="1">
-        <v>-226.236000</v>
+        <v>-226.23599999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>71231.492690</v>
+        <v>71231.492689999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>19.786526</v>
+        <v>19.786525999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1130.570000</v>
+        <v>1130.57</v>
       </c>
       <c r="BL5" s="1">
-        <v>-360.908000</v>
+        <v>-360.90800000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>71243.022690</v>
+        <v>71243.022689999998</v>
       </c>
       <c r="BO5" s="1">
-        <v>19.789729</v>
+        <v>19.789729000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1261.950000</v>
+        <v>1261.95</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-567.858000</v>
+        <v>-567.85799999999995</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>71254.862692</v>
+        <v>71254.862691999995</v>
       </c>
       <c r="BT5" s="1">
-        <v>19.793017</v>
+        <v>19.793016999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1408.970000</v>
+        <v>1408.97</v>
       </c>
       <c r="BV5" s="1">
-        <v>-787.951000</v>
+        <v>-787.95100000000002</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>71265.934389</v>
+        <v>71265.934389000002</v>
       </c>
       <c r="BY5" s="1">
-        <v>19.796093</v>
+        <v>19.796092999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1568.810000</v>
+        <v>1568.81</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1017.270000</v>
+        <v>-1017.27</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>71276.911846</v>
+        <v>71276.911846000003</v>
       </c>
       <c r="CD5" s="1">
         <v>19.799142</v>
       </c>
       <c r="CE5" s="1">
-        <v>1971.300000</v>
+        <v>1971.3</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1553.610000</v>
+        <v>-1553.61</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>71104.663177</v>
+        <v>71104.663176999995</v>
       </c>
       <c r="B6" s="1">
-        <v>19.751295</v>
+        <v>19.751294999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>903.568000</v>
+        <v>903.56799999999998</v>
       </c>
       <c r="D6" s="1">
-        <v>-189.493000</v>
+        <v>-189.49299999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>71115.077216</v>
+        <v>71115.077216000005</v>
       </c>
       <c r="G6" s="1">
-        <v>19.754188</v>
+        <v>19.754187999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>919.593000</v>
+        <v>919.59299999999996</v>
       </c>
       <c r="I6" s="1">
-        <v>-161.207000</v>
+        <v>-161.20699999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>71125.346349</v>
+        <v>71125.346348999999</v>
       </c>
       <c r="L6" s="1">
-        <v>19.757041</v>
+        <v>19.757041000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>941.395000</v>
+        <v>941.39499999999998</v>
       </c>
       <c r="N6" s="1">
-        <v>-116.531000</v>
+        <v>-116.53100000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>71135.882401</v>
+        <v>71135.882400999995</v>
       </c>
       <c r="Q6" s="1">
         <v>19.759967</v>
       </c>
       <c r="R6" s="1">
-        <v>948.060000</v>
+        <v>948.06</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.077000</v>
+        <v>-102.077</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>71146.082098</v>
+        <v>71146.082097999999</v>
       </c>
       <c r="V6" s="1">
         <v>19.762801</v>
       </c>
       <c r="W6" s="1">
-        <v>954.761000</v>
+        <v>954.76099999999997</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.967300</v>
+        <v>-88.967299999999994</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>71156.247108</v>
+        <v>71156.247107999996</v>
       </c>
       <c r="AA6" s="1">
-        <v>19.765624</v>
+        <v>19.765623999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>962.364000</v>
+        <v>962.36400000000003</v>
       </c>
       <c r="AC6" s="1">
-        <v>-79.842600</v>
+        <v>-79.842600000000004</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>71166.502423</v>
+        <v>71166.502422999998</v>
       </c>
       <c r="AF6" s="1">
         <v>19.768473</v>
       </c>
       <c r="AG6" s="1">
-        <v>967.463000</v>
+        <v>967.46299999999997</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.567000</v>
+        <v>-79.566999999999993</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>71177.002202</v>
+        <v>71177.002202000003</v>
       </c>
       <c r="AK6" s="1">
-        <v>19.771390</v>
+        <v>19.77139</v>
       </c>
       <c r="AL6" s="1">
-        <v>975.576000</v>
+        <v>975.57600000000002</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.256100</v>
+        <v>-87.256100000000004</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>71187.645851</v>
+        <v>71187.645850999994</v>
       </c>
       <c r="AP6" s="1">
-        <v>19.774346</v>
+        <v>19.774346000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>984.803000</v>
+        <v>984.803</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.054000</v>
+        <v>-102.054</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>71198.686829</v>
+        <v>71198.686828999998</v>
       </c>
       <c r="AU6" s="1">
-        <v>19.777413</v>
+        <v>19.777412999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>996.154000</v>
+        <v>996.154</v>
       </c>
       <c r="AW6" s="1">
-        <v>-123.418000</v>
+        <v>-123.41800000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>71209.777873</v>
+        <v>71209.777872999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>19.780494</v>
+        <v>19.780494000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1005.750000</v>
+        <v>1005.75</v>
       </c>
       <c r="BB6" s="1">
-        <v>-141.997000</v>
+        <v>-141.99700000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>71220.831679</v>
+        <v>71220.831678999995</v>
       </c>
       <c r="BE6" s="1">
-        <v>19.783564</v>
+        <v>19.783563999999998</v>
       </c>
       <c r="BF6" s="1">
-        <v>1051.020000</v>
+        <v>1051.02</v>
       </c>
       <c r="BG6" s="1">
-        <v>-226.225000</v>
+        <v>-226.22499999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>71231.867698</v>
+        <v>71231.867698000002</v>
       </c>
       <c r="BJ6" s="1">
-        <v>19.786630</v>
+        <v>19.786629999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1130.550000</v>
+        <v>1130.55</v>
       </c>
       <c r="BL6" s="1">
-        <v>-360.947000</v>
+        <v>-360.947</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>71243.770657</v>
+        <v>71243.770657000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>19.789936</v>
+        <v>19.789936000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1261.980000</v>
+        <v>1261.98</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-567.878000</v>
+        <v>-567.87800000000004</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>71254.976274</v>
+        <v>71254.976274000001</v>
       </c>
       <c r="BT6" s="1">
         <v>19.793049</v>
       </c>
       <c r="BU6" s="1">
-        <v>1409.020000</v>
+        <v>1409.02</v>
       </c>
       <c r="BV6" s="1">
-        <v>-787.994000</v>
+        <v>-787.99400000000003</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>71266.062887</v>
+        <v>71266.062886999993</v>
       </c>
       <c r="BY6" s="1">
-        <v>19.796129</v>
+        <v>19.796129000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1568.670000</v>
+        <v>1568.67</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1017.210000</v>
+        <v>-1017.21</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>71277.429174</v>
+        <v>71277.429174000004</v>
       </c>
       <c r="CD6" s="1">
-        <v>19.799286</v>
+        <v>19.799285999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1970.350000</v>
+        <v>1970.35</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1552.400000</v>
+        <v>-1552.4</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>71105.102632</v>
+        <v>71105.102631999995</v>
       </c>
       <c r="B7" s="1">
         <v>19.751417</v>
       </c>
       <c r="C7" s="1">
-        <v>903.424000</v>
+        <v>903.42399999999998</v>
       </c>
       <c r="D7" s="1">
-        <v>-189.464000</v>
+        <v>-189.464</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>71115.514156</v>
+        <v>71115.514156000005</v>
       </c>
       <c r="G7" s="1">
-        <v>19.754309</v>
+        <v>19.754308999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>919.548000</v>
+        <v>919.548</v>
       </c>
       <c r="I7" s="1">
-        <v>-161.089000</v>
+        <v>-161.089</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>71125.621629</v>
+        <v>71125.621629000001</v>
       </c>
       <c r="L7" s="1">
-        <v>19.757117</v>
+        <v>19.757117000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>941.420000</v>
+        <v>941.42</v>
       </c>
       <c r="N7" s="1">
-        <v>-116.640000</v>
+        <v>-116.64</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>71136.158641</v>
+        <v>71136.158641000002</v>
       </c>
       <c r="Q7" s="1">
-        <v>19.760044</v>
+        <v>19.760044000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>948.097000</v>
+        <v>948.09699999999998</v>
       </c>
       <c r="S7" s="1">
-        <v>-102.099000</v>
+        <v>-102.099</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>71146.429297</v>
+        <v>71146.429296999995</v>
       </c>
       <c r="V7" s="1">
-        <v>19.762897</v>
+        <v>19.762896999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>954.786000</v>
+        <v>954.78599999999994</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.148300</v>
+        <v>-89.148300000000006</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>71156.601285</v>
+        <v>71156.601284999997</v>
       </c>
       <c r="AA7" s="1">
-        <v>19.765723</v>
+        <v>19.765723000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>962.395000</v>
+        <v>962.39499999999998</v>
       </c>
       <c r="AC7" s="1">
-        <v>-79.930500</v>
+        <v>-79.930499999999995</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>71166.849592</v>
+        <v>71166.849591999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>19.768569</v>
+        <v>19.768568999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>967.507000</v>
+        <v>967.50699999999995</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.553800</v>
+        <v>-79.553799999999995</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>71177.699576</v>
+        <v>71177.699575999999</v>
       </c>
       <c r="AK7" s="1">
         <v>19.771583</v>
       </c>
       <c r="AL7" s="1">
-        <v>975.577000</v>
+        <v>975.577</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.268800</v>
+        <v>-87.268799999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>71188.005452</v>
+        <v>71188.005451999998</v>
       </c>
       <c r="AP7" s="1">
-        <v>19.774446</v>
+        <v>19.774446000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>984.793000</v>
+        <v>984.79300000000001</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.054000</v>
+        <v>-102.054</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>71199.074172</v>
+        <v>71199.074171999993</v>
       </c>
       <c r="AU7" s="1">
         <v>19.777521</v>
       </c>
       <c r="AV7" s="1">
-        <v>996.160000</v>
+        <v>996.16</v>
       </c>
       <c r="AW7" s="1">
-        <v>-123.407000</v>
+        <v>-123.407</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>71210.139917</v>
+        <v>71210.139916999993</v>
       </c>
       <c r="AZ7" s="1">
-        <v>19.780594</v>
+        <v>19.780594000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1005.750000</v>
+        <v>1005.75</v>
       </c>
       <c r="BB7" s="1">
-        <v>-142.000000</v>
+        <v>-142</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>71221.516654</v>
+        <v>71221.516654000006</v>
       </c>
       <c r="BE7" s="1">
-        <v>19.783755</v>
+        <v>19.783754999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1050.990000</v>
+        <v>1050.99</v>
       </c>
       <c r="BG7" s="1">
-        <v>-226.226000</v>
+        <v>-226.226</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>71232.562096</v>
+        <v>71232.562095999994</v>
       </c>
       <c r="BJ7" s="1">
-        <v>19.786823</v>
+        <v>19.786822999999998</v>
       </c>
       <c r="BK7" s="1">
-        <v>1130.590000</v>
+        <v>1130.5899999999999</v>
       </c>
       <c r="BL7" s="1">
-        <v>-360.928000</v>
+        <v>-360.928</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>71244.263185</v>
+        <v>71244.263185000003</v>
       </c>
       <c r="BO7" s="1">
         <v>19.790073</v>
       </c>
       <c r="BP7" s="1">
-        <v>1261.940000</v>
+        <v>1261.94</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-567.876000</v>
+        <v>-567.87599999999998</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>71255.415730</v>
+        <v>71255.415729999993</v>
       </c>
       <c r="BT7" s="1">
-        <v>19.793171</v>
+        <v>19.793171000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1409.000000</v>
+        <v>1409</v>
       </c>
       <c r="BV7" s="1">
-        <v>-788.053000</v>
+        <v>-788.053</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>71266.487460</v>
+        <v>71266.487460000004</v>
       </c>
       <c r="BY7" s="1">
-        <v>19.796247</v>
+        <v>19.796247000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1568.630000</v>
+        <v>1568.63</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1017.280000</v>
+        <v>-1017.28</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>71277.953476</v>
+        <v>71277.953475999995</v>
       </c>
       <c r="CD7" s="1">
-        <v>19.799432</v>
+        <v>19.799431999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>1970.750000</v>
+        <v>1970.75</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1552.410000</v>
+        <v>-1552.41</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>71105.368490</v>
+        <v>71105.368489999993</v>
       </c>
       <c r="B8" s="1">
-        <v>19.751491</v>
+        <v>19.751491000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>903.614000</v>
+        <v>903.61400000000003</v>
       </c>
       <c r="D8" s="1">
-        <v>-189.408000</v>
+        <v>-189.40799999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>71115.794890</v>
+        <v>71115.794890000005</v>
       </c>
       <c r="G8" s="1">
-        <v>19.754387</v>
+        <v>19.754387000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>919.720000</v>
+        <v>919.72</v>
       </c>
       <c r="I8" s="1">
-        <v>-161.578000</v>
+        <v>-161.578</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>71125.965853</v>
+        <v>71125.965853000002</v>
       </c>
       <c r="L8" s="1">
         <v>19.757213</v>
       </c>
       <c r="M8" s="1">
-        <v>941.498000</v>
+        <v>941.49800000000005</v>
       </c>
       <c r="N8" s="1">
-        <v>-116.690000</v>
+        <v>-116.69</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>71136.508815</v>
+        <v>71136.508814999994</v>
       </c>
       <c r="Q8" s="1">
-        <v>19.760141</v>
+        <v>19.760141000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>948.099000</v>
+        <v>948.09900000000005</v>
       </c>
       <c r="S8" s="1">
-        <v>-102.107000</v>
+        <v>-102.107</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>71146.769554</v>
+        <v>71146.769553999999</v>
       </c>
       <c r="V8" s="1">
-        <v>19.762992</v>
+        <v>19.762992000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>954.718000</v>
+        <v>954.71799999999996</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.007900</v>
+        <v>-89.007900000000006</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>71157.296643</v>
+        <v>71157.296642999994</v>
       </c>
       <c r="AA8" s="1">
-        <v>19.765916</v>
+        <v>19.765916000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>962.440000</v>
+        <v>962.44</v>
       </c>
       <c r="AC8" s="1">
-        <v>-79.909900</v>
+        <v>-79.909899999999993</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>71167.543526</v>
+        <v>71167.543525999994</v>
       </c>
       <c r="AF8" s="1">
-        <v>19.768762</v>
+        <v>19.768761999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>967.518000</v>
+        <v>967.51800000000003</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.600800</v>
+        <v>-79.600800000000007</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>71178.047272</v>
+        <v>71178.047271999996</v>
       </c>
       <c r="AK8" s="1">
-        <v>19.771680</v>
+        <v>19.77168</v>
       </c>
       <c r="AL8" s="1">
-        <v>975.587000</v>
+        <v>975.58699999999999</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.281500</v>
+        <v>-87.281499999999994</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>71188.368026</v>
+        <v>71188.368025999996</v>
       </c>
       <c r="AP8" s="1">
-        <v>19.774547</v>
+        <v>19.774546999999998</v>
       </c>
       <c r="AQ8" s="1">
-        <v>984.786000</v>
+        <v>984.78599999999994</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.037000</v>
+        <v>-102.03700000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>71199.440252</v>
       </c>
       <c r="AU8" s="1">
-        <v>19.777622</v>
+        <v>19.777622000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>996.169000</v>
+        <v>996.16899999999998</v>
       </c>
       <c r="AW8" s="1">
-        <v>-123.402000</v>
+        <v>-123.402</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>71210.815996</v>
+        <v>71210.815996000005</v>
       </c>
       <c r="AZ8" s="1">
-        <v>19.780782</v>
+        <v>19.780781999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1005.750000</v>
+        <v>1005.75</v>
       </c>
       <c r="BB8" s="1">
-        <v>-142.002000</v>
+        <v>-142.00200000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>71221.912960</v>
+        <v>71221.912960000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>19.783865</v>
+        <v>19.783864999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1050.990000</v>
+        <v>1050.99</v>
       </c>
       <c r="BG8" s="1">
-        <v>-226.234000</v>
+        <v>-226.23400000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>71232.991136</v>
+        <v>71232.991135999997</v>
       </c>
       <c r="BJ8" s="1">
         <v>19.786942</v>
       </c>
       <c r="BK8" s="1">
-        <v>1130.560000</v>
+        <v>1130.56</v>
       </c>
       <c r="BL8" s="1">
-        <v>-360.882000</v>
+        <v>-360.88200000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>71244.679824</v>
+        <v>71244.679824000006</v>
       </c>
       <c r="BO8" s="1">
-        <v>19.790189</v>
+        <v>19.790189000000002</v>
       </c>
       <c r="BP8" s="1">
-        <v>1261.930000</v>
+        <v>1261.93</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-567.871000</v>
+        <v>-567.87099999999998</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>71255.840803</v>
+        <v>71255.840802999999</v>
       </c>
       <c r="BT8" s="1">
-        <v>19.793289</v>
+        <v>19.793289000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1408.960000</v>
+        <v>1408.96</v>
       </c>
       <c r="BV8" s="1">
-        <v>-788.215000</v>
+        <v>-788.21500000000003</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>71266.904067</v>
+        <v>71266.904066999996</v>
       </c>
       <c r="BY8" s="1">
-        <v>19.796362</v>
+        <v>19.796361999999998</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1568.600000</v>
+        <v>1568.6</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1017.450000</v>
+        <v>-1017.45</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>71278.503509</v>
+        <v>71278.503509000002</v>
       </c>
       <c r="CD8" s="1">
-        <v>19.799584</v>
+        <v>19.799583999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1971.400000</v>
+        <v>1971.4</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1554.000000</v>
+        <v>-1554</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>71105.710537</v>
+        <v>71105.710537000006</v>
       </c>
       <c r="B9" s="1">
         <v>19.751586</v>
       </c>
       <c r="C9" s="1">
-        <v>903.350000</v>
+        <v>903.35</v>
       </c>
       <c r="D9" s="1">
-        <v>-189.498000</v>
+        <v>-189.49799999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>71116.139113</v>
+        <v>71116.139112999997</v>
       </c>
       <c r="G9" s="1">
         <v>19.754483</v>
       </c>
       <c r="H9" s="1">
-        <v>919.168000</v>
+        <v>919.16800000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-161.646000</v>
+        <v>-161.64599999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>71126.313052</v>
+        <v>71126.313051999998</v>
       </c>
       <c r="L9" s="1">
-        <v>19.757309</v>
+        <v>19.757308999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>941.420000</v>
+        <v>941.42</v>
       </c>
       <c r="N9" s="1">
-        <v>-116.580000</v>
+        <v>-116.58</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>71136.863951</v>
+        <v>71136.863951000007</v>
       </c>
       <c r="Q9" s="1">
-        <v>19.760240</v>
+        <v>19.76024</v>
       </c>
       <c r="R9" s="1">
-        <v>948.032000</v>
+        <v>948.03200000000004</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.161000</v>
+        <v>-102.161</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>71147.457506</v>
+        <v>71147.457506000006</v>
       </c>
       <c r="V9" s="1">
-        <v>19.763183</v>
+        <v>19.763183000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>954.765000</v>
+        <v>954.76499999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.044400</v>
+        <v>-89.044399999999996</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>71157.644371</v>
+        <v>71157.644371000002</v>
       </c>
       <c r="AA9" s="1">
         <v>19.766012</v>
       </c>
       <c r="AB9" s="1">
-        <v>962.389000</v>
+        <v>962.38900000000001</v>
       </c>
       <c r="AC9" s="1">
-        <v>-79.901700</v>
+        <v>-79.901700000000005</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>71167.896149</v>
+        <v>71167.896148999993</v>
       </c>
       <c r="AF9" s="1">
-        <v>19.768860</v>
+        <v>19.76886</v>
       </c>
       <c r="AG9" s="1">
-        <v>967.540000</v>
+        <v>967.54</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.624300</v>
+        <v>-79.624300000000005</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>71178.396456</v>
+        <v>71178.396456000002</v>
       </c>
       <c r="AK9" s="1">
         <v>19.771777</v>
       </c>
       <c r="AL9" s="1">
-        <v>975.610000</v>
+        <v>975.61</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.284300</v>
+        <v>-87.284300000000002</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>71189.043118</v>
+        <v>71189.043118000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>19.774734</v>
+        <v>19.774733999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>984.796000</v>
+        <v>984.79600000000005</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.047000</v>
+        <v>-102.047</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>71200.120731</v>
+        <v>71200.120731000003</v>
       </c>
       <c r="AU9" s="1">
         <v>19.777811</v>
       </c>
       <c r="AV9" s="1">
-        <v>996.171000</v>
+        <v>996.17100000000005</v>
       </c>
       <c r="AW9" s="1">
-        <v>-123.396000</v>
+        <v>-123.396</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>71211.242524</v>
+        <v>71211.242524000001</v>
       </c>
       <c r="AZ9" s="1">
         <v>19.780901</v>
       </c>
       <c r="BA9" s="1">
-        <v>1005.770000</v>
+        <v>1005.77</v>
       </c>
       <c r="BB9" s="1">
-        <v>-141.994000</v>
+        <v>-141.994</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>71222.304338</v>
+        <v>71222.304338000002</v>
       </c>
       <c r="BE9" s="1">
         <v>19.783973</v>
       </c>
       <c r="BF9" s="1">
-        <v>1051.000000</v>
+        <v>1051</v>
       </c>
       <c r="BG9" s="1">
-        <v>-226.236000</v>
+        <v>-226.23599999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>71233.369054</v>
+        <v>71233.369053999995</v>
       </c>
       <c r="BJ9" s="1">
-        <v>19.787047</v>
+        <v>19.787047000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1130.560000</v>
+        <v>1130.56</v>
       </c>
       <c r="BL9" s="1">
-        <v>-360.894000</v>
+        <v>-360.89400000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>71245.082575</v>
+        <v>71245.082574999993</v>
       </c>
       <c r="BO9" s="1">
-        <v>19.790301</v>
+        <v>19.790300999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1261.890000</v>
+        <v>1261.8900000000001</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-567.897000</v>
+        <v>-567.89700000000005</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>71256.269377</v>
+        <v>71256.269377000004</v>
       </c>
       <c r="BT9" s="1">
-        <v>19.793408</v>
+        <v>19.793407999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1408.920000</v>
+        <v>1408.92</v>
       </c>
       <c r="BV9" s="1">
-        <v>-788.241000</v>
+        <v>-788.24099999999999</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>71267.350962</v>
+        <v>71267.350961999997</v>
       </c>
       <c r="BY9" s="1">
-        <v>19.796486</v>
+        <v>19.796486000000002</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1568.770000</v>
+        <v>1568.77</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1017.360000</v>
+        <v>-1017.36</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>71279.034226</v>
+        <v>71279.034226000003</v>
       </c>
       <c r="CD9" s="1">
-        <v>19.799732</v>
+        <v>19.799731999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1970.650000</v>
+        <v>1970.65</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1552.540000</v>
+        <v>-1552.54</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>71106.049041</v>
+        <v>71106.049041000006</v>
       </c>
       <c r="B10" s="1">
-        <v>19.751680</v>
+        <v>19.75168</v>
       </c>
       <c r="C10" s="1">
-        <v>903.304000</v>
+        <v>903.30399999999997</v>
       </c>
       <c r="D10" s="1">
-        <v>-189.296000</v>
+        <v>-189.29599999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>71116.484331</v>
@@ -2552,557 +2968,557 @@
         <v>19.754579</v>
       </c>
       <c r="H10" s="1">
-        <v>919.836000</v>
+        <v>919.83600000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-160.739000</v>
+        <v>-160.739</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>71127.008950</v>
+        <v>71127.008950000003</v>
       </c>
       <c r="L10" s="1">
-        <v>19.757502</v>
+        <v>19.757501999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>941.500000</v>
+        <v>941.5</v>
       </c>
       <c r="N10" s="1">
-        <v>-116.639000</v>
+        <v>-116.639</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>71137.591154</v>
+        <v>71137.591153999994</v>
       </c>
       <c r="Q10" s="1">
-        <v>19.760442</v>
+        <v>19.760442000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>948.030000</v>
+        <v>948.03</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.132000</v>
+        <v>-102.13200000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>71147.800735</v>
+        <v>71147.800734999997</v>
       </c>
       <c r="V10" s="1">
         <v>19.763278</v>
       </c>
       <c r="W10" s="1">
-        <v>954.818000</v>
+        <v>954.81799999999998</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.016200</v>
+        <v>-89.016199999999998</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>71157.993026</v>
+        <v>71157.993025999996</v>
       </c>
       <c r="AA10" s="1">
         <v>19.766109</v>
       </c>
       <c r="AB10" s="1">
-        <v>962.287000</v>
+        <v>962.28700000000003</v>
       </c>
       <c r="AC10" s="1">
-        <v>-79.872200</v>
+        <v>-79.872200000000007</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>71168.239381</v>
+        <v>71168.239381000007</v>
       </c>
       <c r="AF10" s="1">
-        <v>19.768955</v>
+        <v>19.768954999999998</v>
       </c>
       <c r="AG10" s="1">
-        <v>967.536000</v>
+        <v>967.53599999999994</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.594800</v>
+        <v>-79.594800000000006</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>71179.067047</v>
+        <v>71179.067047000004</v>
       </c>
       <c r="AK10" s="1">
         <v>19.771963</v>
       </c>
       <c r="AL10" s="1">
-        <v>975.573000</v>
+        <v>975.57299999999998</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.257500</v>
+        <v>-87.257499999999993</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>71189.474138</v>
+        <v>71189.474138000005</v>
       </c>
       <c r="AP10" s="1">
-        <v>19.774854</v>
+        <v>19.774854000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>984.813000</v>
+        <v>984.81299999999999</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.040000</v>
+        <v>-102.04</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>71200.567660</v>
+        <v>71200.567660000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>19.777935</v>
+        <v>19.777934999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>996.169000</v>
+        <v>996.16899999999998</v>
       </c>
       <c r="AW10" s="1">
-        <v>-123.399000</v>
+        <v>-123.399</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>71211.622956</v>
+        <v>71211.622956000007</v>
       </c>
       <c r="AZ10" s="1">
-        <v>19.781006</v>
+        <v>19.781006000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1005.770000</v>
+        <v>1005.77</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.008000</v>
+        <v>-142.00800000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>71222.662413</v>
+        <v>71222.662412999998</v>
       </c>
       <c r="BE10" s="1">
-        <v>19.784073</v>
+        <v>19.784072999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1051.000000</v>
+        <v>1051</v>
       </c>
       <c r="BG10" s="1">
-        <v>-226.228000</v>
+        <v>-226.22800000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>71233.747008</v>
+        <v>71233.747008000006</v>
       </c>
       <c r="BJ10" s="1">
-        <v>19.787152</v>
+        <v>19.787151999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1130.570000</v>
+        <v>1130.57</v>
       </c>
       <c r="BL10" s="1">
-        <v>-360.925000</v>
+        <v>-360.92500000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>71245.514095</v>
+        <v>71245.514095000006</v>
       </c>
       <c r="BO10" s="1">
-        <v>19.790421</v>
+        <v>19.790420999999998</v>
       </c>
       <c r="BP10" s="1">
-        <v>1261.940000</v>
+        <v>1261.94</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-567.866000</v>
+        <v>-567.86599999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>71256.688992</v>
+        <v>71256.688991999996</v>
       </c>
       <c r="BT10" s="1">
-        <v>19.793525</v>
+        <v>19.793524999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1409.040000</v>
+        <v>1409.04</v>
       </c>
       <c r="BV10" s="1">
-        <v>-788.248000</v>
+        <v>-788.24800000000005</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>71267.777521</v>
+        <v>71267.777520999996</v>
       </c>
       <c r="BY10" s="1">
         <v>19.796605</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1568.830000</v>
+        <v>1568.83</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1017.390000</v>
+        <v>-1017.39</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>71279.551058</v>
+        <v>71279.551057999997</v>
       </c>
       <c r="CD10" s="1">
         <v>19.799875</v>
       </c>
       <c r="CE10" s="1">
-        <v>1969.400000</v>
+        <v>1969.4</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1553.090000</v>
+        <v>-1553.09</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>71106.732983</v>
+        <v>71106.732982999994</v>
       </c>
       <c r="B11" s="1">
-        <v>19.751870</v>
+        <v>19.75187</v>
       </c>
       <c r="C11" s="1">
-        <v>903.449000</v>
+        <v>903.44899999999996</v>
       </c>
       <c r="D11" s="1">
-        <v>-189.491000</v>
+        <v>-189.49100000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>71117.174799</v>
       </c>
       <c r="G11" s="1">
-        <v>19.754771</v>
+        <v>19.754771000000002</v>
       </c>
       <c r="H11" s="1">
-        <v>919.299000</v>
+        <v>919.29899999999998</v>
       </c>
       <c r="I11" s="1">
-        <v>-161.313000</v>
+        <v>-161.31299999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>71127.360603</v>
+        <v>71127.360602999994</v>
       </c>
       <c r="L11" s="1">
-        <v>19.757600</v>
+        <v>19.7576</v>
       </c>
       <c r="M11" s="1">
-        <v>941.386000</v>
+        <v>941.38599999999997</v>
       </c>
       <c r="N11" s="1">
-        <v>-116.559000</v>
+        <v>-116.559</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>71137.907037</v>
+        <v>71137.907036999997</v>
       </c>
       <c r="Q11" s="1">
-        <v>19.760530</v>
+        <v>19.760529999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>948.046000</v>
+        <v>948.04600000000005</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.069000</v>
+        <v>-102.069</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>71148.144959</v>
+        <v>71148.144958999997</v>
       </c>
       <c r="V11" s="1">
-        <v>19.763374</v>
+        <v>19.763373999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>954.855000</v>
+        <v>954.85500000000002</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.938900</v>
+        <v>-88.938900000000004</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>71158.664148</v>
+        <v>71158.664147999996</v>
       </c>
       <c r="AA11" s="1">
-        <v>19.766296</v>
+        <v>19.766296000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>962.325000</v>
+        <v>962.32500000000005</v>
       </c>
       <c r="AC11" s="1">
-        <v>-79.848300</v>
+        <v>-79.848299999999995</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>71168.910995</v>
+        <v>71168.910994999998</v>
       </c>
       <c r="AF11" s="1">
-        <v>19.769142</v>
+        <v>19.769141999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>967.496000</v>
+        <v>967.49599999999998</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.632000</v>
+        <v>-79.632000000000005</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>71179.444502</v>
+        <v>71179.444501999998</v>
       </c>
       <c r="AK11" s="1">
-        <v>19.772068</v>
+        <v>19.772068000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>975.569000</v>
+        <v>975.56899999999996</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.282000</v>
+        <v>-87.281999999999996</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>71189.834697</v>
+        <v>71189.834696999998</v>
       </c>
       <c r="AP11" s="1">
-        <v>19.774954</v>
+        <v>19.774954000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>984.797000</v>
+        <v>984.79700000000003</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.050000</v>
+        <v>-102.05</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>71200.930699</v>
+        <v>71200.930699000004</v>
       </c>
       <c r="AU11" s="1">
         <v>19.778036</v>
       </c>
       <c r="AV11" s="1">
-        <v>996.156000</v>
+        <v>996.15599999999995</v>
       </c>
       <c r="AW11" s="1">
-        <v>-123.398000</v>
+        <v>-123.398</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>71211.981069</v>
+        <v>71211.981069000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>19.781106</v>
+        <v>19.781106000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1005.750000</v>
+        <v>1005.75</v>
       </c>
       <c r="BB11" s="1">
-        <v>-142.004000</v>
+        <v>-142.00399999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>71223.100878</v>
+        <v>71223.100877999997</v>
       </c>
       <c r="BE11" s="1">
         <v>19.784195</v>
       </c>
       <c r="BF11" s="1">
-        <v>1050.980000</v>
+        <v>1050.98</v>
       </c>
       <c r="BG11" s="1">
-        <v>-226.235000</v>
+        <v>-226.23500000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>71234.168607</v>
       </c>
       <c r="BJ11" s="1">
-        <v>19.787269</v>
+        <v>19.787268999999998</v>
       </c>
       <c r="BK11" s="1">
-        <v>1130.560000</v>
+        <v>1130.56</v>
       </c>
       <c r="BL11" s="1">
-        <v>-360.917000</v>
+        <v>-360.91699999999997</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>71245.896511</v>
+        <v>71245.896510999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>19.790527</v>
+        <v>19.790527000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1261.900000</v>
+        <v>1261.9000000000001</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-567.871000</v>
+        <v>-567.87099999999998</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>71257.114527</v>
+        <v>71257.114526999998</v>
       </c>
       <c r="BT11" s="1">
-        <v>19.793643</v>
+        <v>19.793642999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1408.880000</v>
+        <v>1408.88</v>
       </c>
       <c r="BV11" s="1">
-        <v>-788.272000</v>
+        <v>-788.27200000000005</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>71268.251698</v>
+        <v>71268.251697999993</v>
       </c>
       <c r="BY11" s="1">
         <v>19.796737</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1568.820000</v>
+        <v>1568.82</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1017.250000</v>
+        <v>-1017.25</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>71280.069874</v>
+        <v>71280.069873999993</v>
       </c>
       <c r="CD11" s="1">
-        <v>19.800019</v>
+        <v>19.800018999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1970.500000</v>
+        <v>1970.5</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1554.490000</v>
+        <v>-1554.49</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>71107.080183</v>
+        <v>71107.080182999998</v>
       </c>
       <c r="B12" s="1">
         <v>19.751967</v>
       </c>
       <c r="C12" s="1">
-        <v>903.551000</v>
+        <v>903.55100000000004</v>
       </c>
       <c r="D12" s="1">
-        <v>-189.486000</v>
+        <v>-189.48599999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>71117.517993</v>
+        <v>71117.517993000001</v>
       </c>
       <c r="G12" s="1">
         <v>19.754866</v>
       </c>
       <c r="H12" s="1">
-        <v>919.432000</v>
+        <v>919.43200000000002</v>
       </c>
       <c r="I12" s="1">
-        <v>-161.586000</v>
+        <v>-161.58600000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>71127.704826</v>
+        <v>71127.704826000001</v>
       </c>
       <c r="L12" s="1">
-        <v>19.757696</v>
+        <v>19.757695999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>941.403000</v>
+        <v>941.40300000000002</v>
       </c>
       <c r="N12" s="1">
-        <v>-116.645000</v>
+        <v>-116.645</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>71138.581100</v>
+        <v>71138.581099999996</v>
       </c>
       <c r="Q12" s="1">
         <v>19.760717</v>
       </c>
       <c r="R12" s="1">
-        <v>948.083000</v>
+        <v>948.08299999999997</v>
       </c>
       <c r="S12" s="1">
-        <v>-102.114000</v>
+        <v>-102.114</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>71148.796703</v>
@@ -3111,148 +3527,148 @@
         <v>19.763555</v>
       </c>
       <c r="W12" s="1">
-        <v>954.731000</v>
+        <v>954.73099999999999</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.896800</v>
+        <v>-88.896799999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>71159.038097</v>
+        <v>71159.038096999997</v>
       </c>
       <c r="AA12" s="1">
         <v>19.766399</v>
       </c>
       <c r="AB12" s="1">
-        <v>962.354000</v>
+        <v>962.35400000000004</v>
       </c>
       <c r="AC12" s="1">
-        <v>-79.865000</v>
+        <v>-79.864999999999995</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>71169.273540</v>
+        <v>71169.273539999995</v>
       </c>
       <c r="AF12" s="1">
-        <v>19.769243</v>
+        <v>19.769242999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>967.501000</v>
+        <v>967.50099999999998</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.575900</v>
+        <v>-79.575900000000004</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>71179.793191</v>
+        <v>71179.793191000004</v>
       </c>
       <c r="AK12" s="1">
-        <v>19.772165</v>
+        <v>19.772165000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>975.557000</v>
+        <v>975.55700000000002</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.287800</v>
+        <v>-87.287800000000004</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>71190.189368</v>
+        <v>71190.189368000007</v>
       </c>
       <c r="AP12" s="1">
         <v>19.775053</v>
       </c>
       <c r="AQ12" s="1">
-        <v>984.797000</v>
+        <v>984.79700000000003</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.045000</v>
+        <v>-102.045</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>71201.300219</v>
+        <v>71201.300218999997</v>
       </c>
       <c r="AU12" s="1">
-        <v>19.778139</v>
+        <v>19.778138999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>996.163000</v>
+        <v>996.16300000000001</v>
       </c>
       <c r="AW12" s="1">
-        <v>-123.395000</v>
+        <v>-123.395</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>71212.399195</v>
+        <v>71212.399195000005</v>
       </c>
       <c r="AZ12" s="1">
         <v>19.781222</v>
       </c>
       <c r="BA12" s="1">
-        <v>1005.760000</v>
+        <v>1005.76</v>
       </c>
       <c r="BB12" s="1">
-        <v>-142.003000</v>
+        <v>-142.00299999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>71223.387069</v>
+        <v>71223.387069000004</v>
       </c>
       <c r="BE12" s="1">
         <v>19.784274</v>
       </c>
       <c r="BF12" s="1">
-        <v>1051.000000</v>
+        <v>1051</v>
       </c>
       <c r="BG12" s="1">
-        <v>-226.246000</v>
+        <v>-226.24600000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>71234.522254</v>
+        <v>71234.522253999996</v>
       </c>
       <c r="BJ12" s="1">
         <v>19.787367</v>
       </c>
       <c r="BK12" s="1">
-        <v>1130.560000</v>
+        <v>1130.56</v>
       </c>
       <c r="BL12" s="1">
-        <v>-360.933000</v>
+        <v>-360.93299999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>71246.319598</v>
+        <v>71246.319598000002</v>
       </c>
       <c r="BO12" s="1">
         <v>19.790644</v>
       </c>
       <c r="BP12" s="1">
-        <v>1261.930000</v>
+        <v>1261.93</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-567.882000</v>
+        <v>-567.88199999999995</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>71257.528714</v>
@@ -3261,240 +3677,240 @@
         <v>19.793758</v>
       </c>
       <c r="BU12" s="1">
-        <v>1408.910000</v>
+        <v>1408.91</v>
       </c>
       <c r="BV12" s="1">
-        <v>-788.352000</v>
+        <v>-788.35199999999998</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>71268.812778</v>
+        <v>71268.812778000007</v>
       </c>
       <c r="BY12" s="1">
         <v>19.796892</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1568.650000</v>
+        <v>1568.65</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1017.270000</v>
+        <v>-1017.27</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>71280.586737</v>
+        <v>71280.586737000005</v>
       </c>
       <c r="CD12" s="1">
-        <v>19.800163</v>
+        <v>19.800163000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1969.580000</v>
+        <v>1969.58</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1554.080000</v>
+        <v>-1554.08</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>71107.418453</v>
+        <v>71107.418453000006</v>
       </c>
       <c r="B13" s="1">
-        <v>19.752061</v>
+        <v>19.752061000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>903.412000</v>
+        <v>903.41200000000003</v>
       </c>
       <c r="D13" s="1">
-        <v>-189.470000</v>
+        <v>-189.47</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>71117.868664</v>
+        <v>71117.868663999994</v>
       </c>
       <c r="G13" s="1">
-        <v>19.754964</v>
+        <v>19.754964000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>919.959000</v>
+        <v>919.95899999999995</v>
       </c>
       <c r="I13" s="1">
-        <v>-161.379000</v>
+        <v>-161.37899999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>71128.361567</v>
       </c>
       <c r="L13" s="1">
-        <v>19.757878</v>
+        <v>19.757878000000002</v>
       </c>
       <c r="M13" s="1">
-        <v>941.423000</v>
+        <v>941.423</v>
       </c>
       <c r="N13" s="1">
-        <v>-116.723000</v>
+        <v>-116.723</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>71138.956572</v>
+        <v>71138.956571999996</v>
       </c>
       <c r="Q13" s="1">
         <v>19.760821</v>
       </c>
       <c r="R13" s="1">
-        <v>948.095000</v>
+        <v>948.09500000000003</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.101000</v>
+        <v>-102.101</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>71149.175163</v>
+        <v>71149.175163000007</v>
       </c>
       <c r="V13" s="1">
-        <v>19.763660</v>
+        <v>19.763660000000002</v>
       </c>
       <c r="W13" s="1">
-        <v>954.799000</v>
+        <v>954.79899999999998</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.895600</v>
+        <v>-88.895600000000002</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>71159.391249</v>
+        <v>71159.391248999993</v>
       </c>
       <c r="AA13" s="1">
-        <v>19.766498</v>
+        <v>19.766497999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>962.378000</v>
+        <v>962.37800000000004</v>
       </c>
       <c r="AC13" s="1">
-        <v>-79.913100</v>
+        <v>-79.9131</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>71169.612805</v>
+        <v>71169.612804999997</v>
       </c>
       <c r="AF13" s="1">
         <v>19.769337</v>
       </c>
       <c r="AG13" s="1">
-        <v>967.591000</v>
+        <v>967.59100000000001</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.646800</v>
+        <v>-79.646799999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>71180.144389</v>
+        <v>71180.144388999994</v>
       </c>
       <c r="AK13" s="1">
-        <v>19.772262</v>
+        <v>19.772262000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>975.589000</v>
+        <v>975.58900000000006</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.255200</v>
+        <v>-87.255200000000002</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>71190.621351</v>
+        <v>71190.621350999994</v>
       </c>
       <c r="AP13" s="1">
-        <v>19.775173</v>
+        <v>19.775172999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>984.785000</v>
+        <v>984.78499999999997</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.039000</v>
+        <v>-102.039</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>71201.739176</v>
+        <v>71201.739176000003</v>
       </c>
       <c r="AU13" s="1">
-        <v>19.778261</v>
+        <v>19.778261000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>996.153000</v>
+        <v>996.15300000000002</v>
       </c>
       <c r="AW13" s="1">
-        <v>-123.400000</v>
+        <v>-123.4</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>71212.696298</v>
+        <v>71212.696297999995</v>
       </c>
       <c r="AZ13" s="1">
         <v>19.781305</v>
       </c>
       <c r="BA13" s="1">
-        <v>1005.760000</v>
+        <v>1005.76</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.015000</v>
+        <v>-142.01499999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>71223.744189</v>
+        <v>71223.744189000005</v>
       </c>
       <c r="BE13" s="1">
-        <v>19.784373</v>
+        <v>19.784372999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1050.990000</v>
+        <v>1050.99</v>
       </c>
       <c r="BG13" s="1">
-        <v>-226.223000</v>
+        <v>-226.22300000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>71234.897725</v>
+        <v>71234.897725000003</v>
       </c>
       <c r="BJ13" s="1">
-        <v>19.787472</v>
+        <v>19.787472000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1130.590000</v>
+        <v>1130.5899999999999</v>
       </c>
       <c r="BL13" s="1">
-        <v>-360.918000</v>
+        <v>-360.91800000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>71246.712925</v>
@@ -3503,512 +3919,512 @@
         <v>19.790754</v>
       </c>
       <c r="BP13" s="1">
-        <v>1261.920000</v>
+        <v>1261.92</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-567.872000</v>
+        <v>-567.87199999999996</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>71257.956734</v>
+        <v>71257.956734000007</v>
       </c>
       <c r="BT13" s="1">
-        <v>19.793877</v>
+        <v>19.793876999999998</v>
       </c>
       <c r="BU13" s="1">
-        <v>1408.830000</v>
+        <v>1408.83</v>
       </c>
       <c r="BV13" s="1">
-        <v>-788.357000</v>
+        <v>-788.35699999999997</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>71269.077538</v>
+        <v>71269.077537999998</v>
       </c>
       <c r="BY13" s="1">
-        <v>19.796966</v>
+        <v>19.796966000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1568.800000</v>
+        <v>1568.8</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1017.500000</v>
+        <v>-1017.5</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>71281.142224</v>
+        <v>71281.142223999996</v>
       </c>
       <c r="CD13" s="1">
         <v>19.800317</v>
       </c>
       <c r="CE13" s="1">
-        <v>1969.310000</v>
+        <v>1969.31</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1553.030000</v>
+        <v>-1553.03</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>71108.063253</v>
       </c>
       <c r="B14" s="1">
-        <v>19.752240</v>
+        <v>19.75224</v>
       </c>
       <c r="C14" s="1">
-        <v>903.343000</v>
+        <v>903.34299999999996</v>
       </c>
       <c r="D14" s="1">
-        <v>-189.495000</v>
+        <v>-189.495</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>71118.538262</v>
+        <v>71118.538262000002</v>
       </c>
       <c r="G14" s="1">
-        <v>19.755150</v>
+        <v>19.75515</v>
       </c>
       <c r="H14" s="1">
-        <v>919.556000</v>
+        <v>919.55600000000004</v>
       </c>
       <c r="I14" s="1">
-        <v>-161.374000</v>
+        <v>-161.374</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>71128.742469</v>
+        <v>71128.742469000004</v>
       </c>
       <c r="L14" s="1">
         <v>19.757984</v>
       </c>
       <c r="M14" s="1">
-        <v>941.447000</v>
+        <v>941.447</v>
       </c>
       <c r="N14" s="1">
-        <v>-116.622000</v>
+        <v>-116.622</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>71139.304299</v>
+        <v>71139.304298999996</v>
       </c>
       <c r="Q14" s="1">
         <v>19.760918</v>
       </c>
       <c r="R14" s="1">
-        <v>948.064000</v>
+        <v>948.06399999999996</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.114000</v>
+        <v>-102.114</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>71149.518879</v>
+        <v>71149.518878999996</v>
       </c>
       <c r="V14" s="1">
         <v>19.763755</v>
       </c>
       <c r="W14" s="1">
-        <v>954.752000</v>
+        <v>954.75199999999995</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.903100</v>
+        <v>-88.903099999999995</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>71159.738944</v>
+        <v>71159.738943999997</v>
       </c>
       <c r="AA14" s="1">
-        <v>19.766594</v>
+        <v>19.766594000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>962.405000</v>
+        <v>962.40499999999997</v>
       </c>
       <c r="AC14" s="1">
-        <v>-79.855900</v>
+        <v>-79.855900000000005</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>71169.958020</v>
+        <v>71169.958020000005</v>
       </c>
       <c r="AF14" s="1">
-        <v>19.769433</v>
+        <v>19.769432999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>967.509000</v>
+        <v>967.50900000000001</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.608100</v>
+        <v>-79.608099999999993</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>71180.566981</v>
+        <v>71180.566980999996</v>
       </c>
       <c r="AK14" s="1">
-        <v>19.772380</v>
+        <v>19.772379999999998</v>
       </c>
       <c r="AL14" s="1">
-        <v>975.562000</v>
+        <v>975.56200000000001</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.251000</v>
+        <v>-87.251000000000005</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>71190.914487</v>
+        <v>71190.914487000002</v>
       </c>
       <c r="AP14" s="1">
         <v>19.775254</v>
       </c>
       <c r="AQ14" s="1">
-        <v>984.801000</v>
+        <v>984.80100000000004</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.055000</v>
+        <v>-102.05500000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>71202.028345</v>
+        <v>71202.028344999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>19.778341</v>
+        <v>19.778341000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>996.151000</v>
+        <v>996.15099999999995</v>
       </c>
       <c r="AW14" s="1">
-        <v>-123.405000</v>
+        <v>-123.405</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>71213.054905</v>
+        <v>71213.054904999997</v>
       </c>
       <c r="AZ14" s="1">
-        <v>19.781404</v>
+        <v>19.781403999999998</v>
       </c>
       <c r="BA14" s="1">
-        <v>1005.760000</v>
+        <v>1005.76</v>
       </c>
       <c r="BB14" s="1">
-        <v>-141.990000</v>
+        <v>-141.99</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>71224.109243</v>
+        <v>71224.109242999999</v>
       </c>
       <c r="BE14" s="1">
         <v>19.784475</v>
       </c>
       <c r="BF14" s="1">
-        <v>1051.000000</v>
+        <v>1051</v>
       </c>
       <c r="BG14" s="1">
-        <v>-226.249000</v>
+        <v>-226.249</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>71235.601549</v>
+        <v>71235.601548999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>19.787667</v>
+        <v>19.787666999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1130.570000</v>
+        <v>1130.57</v>
       </c>
       <c r="BL14" s="1">
-        <v>-360.903000</v>
+        <v>-360.90300000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>71247.140973</v>
+        <v>71247.140973000001</v>
       </c>
       <c r="BO14" s="1">
         <v>19.790872</v>
       </c>
       <c r="BP14" s="1">
-        <v>1261.900000</v>
+        <v>1261.9000000000001</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-567.920000</v>
+        <v>-567.91999999999996</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>71258.383327</v>
+        <v>71258.383327000003</v>
       </c>
       <c r="BT14" s="1">
-        <v>19.793995</v>
+        <v>19.793994999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1408.800000</v>
+        <v>1408.8</v>
       </c>
       <c r="BV14" s="1">
-        <v>-788.383000</v>
+        <v>-788.38300000000004</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>71269.500623</v>
       </c>
       <c r="BY14" s="1">
-        <v>19.797084</v>
+        <v>19.797084000000002</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1568.680000</v>
+        <v>1568.68</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1017.380000</v>
+        <v>-1017.38</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>71281.672447</v>
+        <v>71281.672447000004</v>
       </c>
       <c r="CD14" s="1">
-        <v>19.800465</v>
+        <v>19.800464999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1970.080000</v>
+        <v>1970.08</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1554.510000</v>
+        <v>-1554.51</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>71108.441700</v>
+        <v>71108.441699999996</v>
       </c>
       <c r="B15" s="1">
-        <v>19.752345</v>
+        <v>19.752344999999998</v>
       </c>
       <c r="C15" s="1">
-        <v>903.473000</v>
+        <v>903.47299999999996</v>
       </c>
       <c r="D15" s="1">
-        <v>-189.218000</v>
+        <v>-189.21799999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>71118.901366</v>
+        <v>71118.901366000006</v>
       </c>
       <c r="G15" s="1">
-        <v>19.755250</v>
+        <v>19.75525</v>
       </c>
       <c r="H15" s="1">
-        <v>919.380000</v>
+        <v>919.38</v>
       </c>
       <c r="I15" s="1">
-        <v>-161.477000</v>
+        <v>-161.477</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>71129.085193</v>
+        <v>71129.085193000006</v>
       </c>
       <c r="L15" s="1">
-        <v>19.758079</v>
+        <v>19.758078999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>941.215000</v>
+        <v>941.21500000000003</v>
       </c>
       <c r="N15" s="1">
-        <v>-116.530000</v>
+        <v>-116.53</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>71139.655931</v>
+        <v>71139.655931000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>19.761016</v>
+        <v>19.761016000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>948.104000</v>
+        <v>948.10400000000004</v>
       </c>
       <c r="S15" s="1">
-        <v>-102.091000</v>
+        <v>-102.09099999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>71149.867565</v>
+        <v>71149.867564999993</v>
       </c>
       <c r="V15" s="1">
         <v>19.763852</v>
       </c>
       <c r="W15" s="1">
-        <v>954.760000</v>
+        <v>954.76</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.928300</v>
+        <v>-88.928299999999993</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>71160.160049</v>
+        <v>71160.160048999998</v>
       </c>
       <c r="AA15" s="1">
-        <v>19.766711</v>
+        <v>19.766711000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>962.337000</v>
+        <v>962.33699999999999</v>
       </c>
       <c r="AC15" s="1">
-        <v>-79.908200</v>
+        <v>-79.908199999999994</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>71170.643986</v>
+        <v>71170.643985999995</v>
       </c>
       <c r="AF15" s="1">
-        <v>19.769623</v>
+        <v>19.769622999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>967.555000</v>
+        <v>967.55499999999995</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.621900</v>
+        <v>-79.621899999999997</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>71180.846196</v>
+        <v>71180.846195999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>19.772457</v>
+        <v>19.772456999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>975.595000</v>
+        <v>975.59500000000003</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.265500</v>
+        <v>-87.265500000000003</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>71191.274582</v>
+        <v>71191.274581999998</v>
       </c>
       <c r="AP15" s="1">
         <v>19.775354</v>
       </c>
       <c r="AQ15" s="1">
-        <v>984.798000</v>
+        <v>984.798</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.048000</v>
+        <v>-102.048</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>71202.454408</v>
+        <v>71202.454408000005</v>
       </c>
       <c r="AU15" s="1">
-        <v>19.778460</v>
+        <v>19.778459999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>996.172000</v>
+        <v>996.17200000000003</v>
       </c>
       <c r="AW15" s="1">
-        <v>-123.379000</v>
+        <v>-123.379</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>71213.415993</v>
+        <v>71213.415993000002</v>
       </c>
       <c r="AZ15" s="1">
-        <v>19.781504</v>
+        <v>19.781504000000002</v>
       </c>
       <c r="BA15" s="1">
-        <v>1005.760000</v>
+        <v>1005.76</v>
       </c>
       <c r="BB15" s="1">
-        <v>-142.000000</v>
+        <v>-142</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>71224.831418</v>
+        <v>71224.831418000002</v>
       </c>
       <c r="BE15" s="1">
         <v>19.784675</v>
       </c>
       <c r="BF15" s="1">
-        <v>1051.000000</v>
+        <v>1051</v>
       </c>
       <c r="BG15" s="1">
-        <v>-226.224000</v>
+        <v>-226.22399999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>71236.021661</v>
+        <v>71236.021661000006</v>
       </c>
       <c r="BJ15" s="1">
-        <v>19.787784</v>
+        <v>19.787783999999998</v>
       </c>
       <c r="BK15" s="1">
-        <v>1130.560000</v>
+        <v>1130.56</v>
       </c>
       <c r="BL15" s="1">
-        <v>-360.927000</v>
+        <v>-360.92700000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>71247.535292</v>
@@ -4017,497 +4433,497 @@
         <v>19.790982</v>
       </c>
       <c r="BP15" s="1">
-        <v>1261.920000</v>
+        <v>1261.92</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-567.876000</v>
+        <v>-567.87599999999998</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>71258.799972</v>
+        <v>71258.799971999993</v>
       </c>
       <c r="BT15" s="1">
-        <v>19.794111</v>
+        <v>19.794111000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1408.730000</v>
+        <v>1408.73</v>
       </c>
       <c r="BV15" s="1">
-        <v>-788.432000</v>
+        <v>-788.43200000000002</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>71270.259043</v>
+        <v>71270.259042999998</v>
       </c>
       <c r="BY15" s="1">
-        <v>19.797294</v>
+        <v>19.797294000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1568.750000</v>
+        <v>1568.75</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1017.490000</v>
+        <v>-1017.49</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>71282.493358</v>
+        <v>71282.493358000007</v>
       </c>
       <c r="CD15" s="1">
-        <v>19.800693</v>
+        <v>19.800692999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1971.340000</v>
+        <v>1971.34</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1553.390000</v>
+        <v>-1553.39</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>71108.786451</v>
+        <v>71108.786451000007</v>
       </c>
       <c r="B16" s="1">
-        <v>19.752441</v>
+        <v>19.752441000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>903.477000</v>
+        <v>903.47699999999998</v>
       </c>
       <c r="D16" s="1">
-        <v>-189.371000</v>
+        <v>-189.37100000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>71119.246551</v>
+        <v>71119.246551000004</v>
       </c>
       <c r="G16" s="1">
-        <v>19.755346</v>
+        <v>19.755345999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>919.936000</v>
+        <v>919.93600000000004</v>
       </c>
       <c r="I16" s="1">
-        <v>-161.183000</v>
+        <v>-161.18299999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>71129.434376</v>
+        <v>71129.434376000005</v>
       </c>
       <c r="L16" s="1">
-        <v>19.758176</v>
+        <v>19.758175999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>941.449000</v>
+        <v>941.44899999999996</v>
       </c>
       <c r="N16" s="1">
-        <v>-116.585000</v>
+        <v>-116.58499999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>71140.082025</v>
+        <v>71140.082024999996</v>
       </c>
       <c r="Q16" s="1">
-        <v>19.761134</v>
+        <v>19.761133999999998</v>
       </c>
       <c r="R16" s="1">
-        <v>948.112000</v>
+        <v>948.11199999999997</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.109000</v>
+        <v>-102.10899999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>71150.297142</v>
+        <v>71150.297141999996</v>
       </c>
       <c r="V16" s="1">
-        <v>19.763971</v>
+        <v>19.763971000000002</v>
       </c>
       <c r="W16" s="1">
-        <v>954.828000</v>
+        <v>954.82799999999997</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.995700</v>
+        <v>-88.995699999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>71160.441279</v>
+        <v>71160.441279000006</v>
       </c>
       <c r="AA16" s="1">
-        <v>19.766789</v>
+        <v>19.766788999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>962.346000</v>
+        <v>962.346</v>
       </c>
       <c r="AC16" s="1">
-        <v>-79.896300</v>
+        <v>-79.896299999999997</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>71170.989201</v>
+        <v>71170.989201000004</v>
       </c>
       <c r="AF16" s="1">
-        <v>19.769719</v>
+        <v>19.769718999999998</v>
       </c>
       <c r="AG16" s="1">
-        <v>967.352000</v>
+        <v>967.35199999999998</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.699900</v>
+        <v>-79.6999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>71181.193892</v>
+        <v>71181.193891999996</v>
       </c>
       <c r="AK16" s="1">
         <v>19.772554</v>
       </c>
       <c r="AL16" s="1">
-        <v>975.585000</v>
+        <v>975.58500000000004</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.254700</v>
+        <v>-87.2547</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>71191.633686</v>
+        <v>71191.633686000001</v>
       </c>
       <c r="AP16" s="1">
         <v>19.775454</v>
       </c>
       <c r="AQ16" s="1">
-        <v>984.820000</v>
+        <v>984.82</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.043000</v>
+        <v>-102.04300000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>71203.050601</v>
+        <v>71203.050600999995</v>
       </c>
       <c r="AU16" s="1">
-        <v>19.778625</v>
+        <v>19.778625000000002</v>
       </c>
       <c r="AV16" s="1">
-        <v>996.150000</v>
+        <v>996.15</v>
       </c>
       <c r="AW16" s="1">
-        <v>-123.384000</v>
+        <v>-123.384</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>71214.133705</v>
       </c>
       <c r="AZ16" s="1">
-        <v>19.781704</v>
+        <v>19.781704000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1005.760000</v>
+        <v>1005.76</v>
       </c>
       <c r="BB16" s="1">
-        <v>-141.983000</v>
+        <v>-141.983</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>71225.191514</v>
+        <v>71225.191514000006</v>
       </c>
       <c r="BE16" s="1">
         <v>19.784775</v>
       </c>
       <c r="BF16" s="1">
-        <v>1051.000000</v>
+        <v>1051</v>
       </c>
       <c r="BG16" s="1">
-        <v>-226.239000</v>
+        <v>-226.239</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>71236.398919</v>
+        <v>71236.398918999999</v>
       </c>
       <c r="BJ16" s="1">
         <v>19.787889</v>
       </c>
       <c r="BK16" s="1">
-        <v>1130.540000</v>
+        <v>1130.54</v>
       </c>
       <c r="BL16" s="1">
-        <v>-360.911000</v>
+        <v>-360.911</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>71247.953915</v>
+        <v>71247.953915000006</v>
       </c>
       <c r="BO16" s="1">
-        <v>19.791098</v>
+        <v>19.791098000000002</v>
       </c>
       <c r="BP16" s="1">
-        <v>1261.920000</v>
+        <v>1261.92</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-567.893000</v>
+        <v>-567.89300000000003</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>71259.549388</v>
+        <v>71259.549387999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>19.794319</v>
+        <v>19.794319000000002</v>
       </c>
       <c r="BU16" s="1">
-        <v>1408.640000</v>
+        <v>1408.64</v>
       </c>
       <c r="BV16" s="1">
-        <v>-788.384000</v>
+        <v>-788.38400000000001</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>71270.377054</v>
+        <v>71270.377053999997</v>
       </c>
       <c r="BY16" s="1">
-        <v>19.797327</v>
+        <v>19.797326999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1568.690000</v>
+        <v>1568.69</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1017.430000</v>
+        <v>-1017.43</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>71282.704621</v>
+        <v>71282.704620999997</v>
       </c>
       <c r="CD16" s="1">
-        <v>19.800751</v>
+        <v>19.800751000000002</v>
       </c>
       <c r="CE16" s="1">
-        <v>1970.550000</v>
+        <v>1970.55</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1552.250000</v>
+        <v>-1552.25</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>71109.129155</v>
+        <v>71109.129155000002</v>
       </c>
       <c r="B17" s="1">
-        <v>19.752536</v>
+        <v>19.752535999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>903.552000</v>
+        <v>903.55200000000002</v>
       </c>
       <c r="D17" s="1">
-        <v>-189.461000</v>
+        <v>-189.46100000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>71119.591301</v>
+        <v>71119.591300999993</v>
       </c>
       <c r="G17" s="1">
-        <v>19.755442</v>
+        <v>19.755441999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>919.743000</v>
+        <v>919.74300000000005</v>
       </c>
       <c r="I17" s="1">
-        <v>-161.195000</v>
+        <v>-161.19499999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>71129.876351</v>
+        <v>71129.876350999999</v>
       </c>
       <c r="L17" s="1">
-        <v>19.758299</v>
+        <v>19.758299000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>941.401000</v>
+        <v>941.40099999999995</v>
       </c>
       <c r="N17" s="1">
-        <v>-116.601000</v>
+        <v>-116.601</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>71140.363225</v>
+        <v>71140.363224999994</v>
       </c>
       <c r="Q17" s="1">
         <v>19.761212</v>
       </c>
       <c r="R17" s="1">
-        <v>948.080000</v>
+        <v>948.08</v>
       </c>
       <c r="S17" s="1">
-        <v>-102.060000</v>
+        <v>-102.06</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>71150.570398</v>
+        <v>71150.570397999996</v>
       </c>
       <c r="V17" s="1">
-        <v>19.764047</v>
+        <v>19.764047000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>954.807000</v>
+        <v>954.80700000000002</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.878500</v>
+        <v>-88.878500000000003</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>71160.789043</v>
+        <v>71160.789042999997</v>
       </c>
       <c r="AA17" s="1">
         <v>19.766886</v>
       </c>
       <c r="AB17" s="1">
-        <v>962.359000</v>
+        <v>962.35900000000004</v>
       </c>
       <c r="AC17" s="1">
-        <v>-79.943700</v>
+        <v>-79.943700000000007</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>71171.330977</v>
+        <v>71171.330977000005</v>
       </c>
       <c r="AF17" s="1">
         <v>19.769814</v>
       </c>
       <c r="AG17" s="1">
-        <v>967.510000</v>
+        <v>967.51</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.576300</v>
+        <v>-79.576300000000003</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>71181.546052</v>
+        <v>71181.546052000005</v>
       </c>
       <c r="AK17" s="1">
-        <v>19.772652</v>
+        <v>19.772652000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>975.561000</v>
+        <v>975.56100000000004</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.268600</v>
+        <v>-87.268600000000006</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>71192.357349</v>
+        <v>71192.357348999998</v>
       </c>
       <c r="AP17" s="1">
         <v>19.775655</v>
       </c>
       <c r="AQ17" s="1">
-        <v>984.789000</v>
+        <v>984.78899999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.027000</v>
+        <v>-102.027</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>71203.516840</v>
+        <v>71203.516839999997</v>
       </c>
       <c r="AU17" s="1">
         <v>19.778755</v>
       </c>
       <c r="AV17" s="1">
-        <v>996.171000</v>
+        <v>996.17100000000005</v>
       </c>
       <c r="AW17" s="1">
-        <v>-123.398000</v>
+        <v>-123.398</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>71214.515624</v>
+        <v>71214.515624000007</v>
       </c>
       <c r="AZ17" s="1">
-        <v>19.781810</v>
+        <v>19.78181</v>
       </c>
       <c r="BA17" s="1">
-        <v>1005.760000</v>
+        <v>1005.76</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.014000</v>
+        <v>-142.01400000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>71225.555113</v>
+        <v>71225.555112999995</v>
       </c>
       <c r="BE17" s="1">
-        <v>19.784876</v>
+        <v>19.784876000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1051.010000</v>
+        <v>1051.01</v>
       </c>
       <c r="BG17" s="1">
-        <v>-226.231000</v>
+        <v>-226.23099999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>71237.099466</v>
@@ -4516,1994 +4932,1994 @@
         <v>19.788083</v>
       </c>
       <c r="BK17" s="1">
-        <v>1130.580000</v>
+        <v>1130.58</v>
       </c>
       <c r="BL17" s="1">
-        <v>-360.936000</v>
+        <v>-360.93599999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>71248.663705</v>
+        <v>71248.663704999999</v>
       </c>
       <c r="BO17" s="1">
-        <v>19.791295</v>
+        <v>19.791295000000002</v>
       </c>
       <c r="BP17" s="1">
-        <v>1261.970000</v>
+        <v>1261.97</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-567.902000</v>
+        <v>-567.90200000000004</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>71259.662022</v>
+        <v>71259.662022000004</v>
       </c>
       <c r="BT17" s="1">
-        <v>19.794351</v>
+        <v>19.794350999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1408.620000</v>
+        <v>1408.62</v>
       </c>
       <c r="BV17" s="1">
-        <v>-788.483000</v>
+        <v>-788.48299999999995</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>71270.815553</v>
+        <v>71270.815552999993</v>
       </c>
       <c r="BY17" s="1">
         <v>19.797449</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1568.740000</v>
+        <v>1568.74</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1017.310000</v>
+        <v>-1017.31</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>71283.224925</v>
+        <v>71283.224925000002</v>
       </c>
       <c r="CD17" s="1">
-        <v>19.800896</v>
+        <v>19.800896000000002</v>
       </c>
       <c r="CE17" s="1">
-        <v>1970.990000</v>
+        <v>1970.99</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1552.460000</v>
+        <v>-1552.46</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>71109.555218</v>
+        <v>71109.555217999994</v>
       </c>
       <c r="B18" s="1">
         <v>19.752654</v>
       </c>
       <c r="C18" s="1">
-        <v>903.464000</v>
+        <v>903.46400000000006</v>
       </c>
       <c r="D18" s="1">
-        <v>-189.355000</v>
+        <v>-189.35499999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>71120.038165</v>
+        <v>71120.038165000005</v>
       </c>
       <c r="G18" s="1">
-        <v>19.755566</v>
+        <v>19.755566000000002</v>
       </c>
       <c r="H18" s="1">
-        <v>919.581000</v>
+        <v>919.58100000000002</v>
       </c>
       <c r="I18" s="1">
-        <v>-160.911000</v>
+        <v>-160.911</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>71130.140680</v>
+        <v>71130.140679999997</v>
       </c>
       <c r="L18" s="1">
-        <v>19.758372</v>
+        <v>19.758372000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>941.386000</v>
+        <v>941.38599999999997</v>
       </c>
       <c r="N18" s="1">
-        <v>-116.729000</v>
+        <v>-116.729</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>71140.710458</v>
+        <v>71140.710458000001</v>
       </c>
       <c r="Q18" s="1">
         <v>19.761308</v>
       </c>
       <c r="R18" s="1">
-        <v>948.115000</v>
+        <v>948.11500000000001</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.030000</v>
+        <v>-102.03</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>71150.914140</v>
+        <v>71150.914139999993</v>
       </c>
       <c r="V18" s="1">
-        <v>19.764143</v>
+        <v>19.764143000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>954.846000</v>
+        <v>954.846</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.905700</v>
+        <v>-88.905699999999996</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>71161.136672</v>
+        <v>71161.136671999993</v>
       </c>
       <c r="AA18" s="1">
-        <v>19.766982</v>
+        <v>19.766981999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>962.402000</v>
+        <v>962.40200000000004</v>
       </c>
       <c r="AC18" s="1">
-        <v>-79.916100</v>
+        <v>-79.9161</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>71172.023360</v>
+        <v>71172.023360000007</v>
       </c>
       <c r="AF18" s="1">
-        <v>19.770006</v>
+        <v>19.770005999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>967.502000</v>
+        <v>967.50199999999995</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.518600</v>
+        <v>-79.518600000000006</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>71182.242435</v>
+        <v>71182.242434999993</v>
       </c>
       <c r="AK18" s="1">
         <v>19.772845</v>
       </c>
       <c r="AL18" s="1">
-        <v>975.592000</v>
+        <v>975.59199999999998</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.274500</v>
+        <v>-87.274500000000003</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>71192.734807</v>
+        <v>71192.734807000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>19.775760</v>
+        <v>19.775759999999998</v>
       </c>
       <c r="AQ18" s="1">
-        <v>984.801000</v>
+        <v>984.80100000000004</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.040000</v>
+        <v>-102.04</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>71203.881398</v>
+        <v>71203.881397999998</v>
       </c>
       <c r="AU18" s="1">
-        <v>19.778856</v>
+        <v>19.778856000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>996.164000</v>
+        <v>996.16399999999999</v>
       </c>
       <c r="AW18" s="1">
-        <v>-123.427000</v>
+        <v>-123.42700000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>71214.891095</v>
+        <v>71214.891094999999</v>
       </c>
       <c r="AZ18" s="1">
         <v>19.781914</v>
       </c>
       <c r="BA18" s="1">
-        <v>1005.800000</v>
+        <v>1005.8</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.019000</v>
+        <v>-142.01900000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>71226.232629</v>
+        <v>71226.232629000006</v>
       </c>
       <c r="BE18" s="1">
-        <v>19.785065</v>
+        <v>19.785064999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1051.000000</v>
+        <v>1051</v>
       </c>
       <c r="BG18" s="1">
-        <v>-226.252000</v>
+        <v>-226.25200000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>71237.522553</v>
+        <v>71237.522553000003</v>
       </c>
       <c r="BJ18" s="1">
-        <v>19.788201</v>
+        <v>19.788201000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1130.520000</v>
+        <v>1130.52</v>
       </c>
       <c r="BL18" s="1">
-        <v>-360.886000</v>
+        <v>-360.88600000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>71248.789185</v>
+        <v>71248.789185000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>19.791330</v>
+        <v>19.791329999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1261.930000</v>
+        <v>1261.93</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-567.896000</v>
+        <v>-567.89599999999996</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>71260.096000</v>
+        <v>71260.096000000005</v>
       </c>
       <c r="BT18" s="1">
-        <v>19.794471</v>
+        <v>19.794471000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1408.580000</v>
+        <v>1408.58</v>
       </c>
       <c r="BV18" s="1">
-        <v>-788.438000</v>
+        <v>-788.43799999999999</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>71271.266877</v>
+        <v>71271.266877000002</v>
       </c>
       <c r="BY18" s="1">
-        <v>19.797574</v>
+        <v>19.797574000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1568.710000</v>
+        <v>1568.71</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1017.380000</v>
+        <v>-1017.38</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>71283.785933</v>
+        <v>71283.785933000006</v>
       </c>
       <c r="CD18" s="1">
-        <v>19.801052</v>
+        <v>19.801051999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>1971.510000</v>
+        <v>1971.51</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1553.450000</v>
+        <v>-1553.45</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>71109.829011</v>
+        <v>71109.829010999994</v>
       </c>
       <c r="B19" s="1">
-        <v>19.752730</v>
+        <v>19.75273</v>
       </c>
       <c r="C19" s="1">
-        <v>903.623000</v>
+        <v>903.62300000000005</v>
       </c>
       <c r="D19" s="1">
-        <v>-189.405000</v>
+        <v>-189.405</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>71120.314437</v>
+        <v>71120.314436999994</v>
       </c>
       <c r="G19" s="1">
-        <v>19.755643</v>
+        <v>19.755642999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>919.358000</v>
+        <v>919.35799999999995</v>
       </c>
       <c r="I19" s="1">
-        <v>-161.404000</v>
+        <v>-161.404</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>71130.481928</v>
+        <v>71130.481927999994</v>
       </c>
       <c r="L19" s="1">
         <v>19.758467</v>
       </c>
       <c r="M19" s="1">
-        <v>941.396000</v>
+        <v>941.39599999999996</v>
       </c>
       <c r="N19" s="1">
-        <v>-116.855000</v>
+        <v>-116.855</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>71141.059145</v>
+        <v>71141.059145000007</v>
       </c>
       <c r="Q19" s="1">
         <v>19.761405</v>
       </c>
       <c r="R19" s="1">
-        <v>948.085000</v>
+        <v>948.08500000000004</v>
       </c>
       <c r="S19" s="1">
-        <v>-102.147000</v>
+        <v>-102.14700000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>71151.256365</v>
+        <v>71151.256364999994</v>
       </c>
       <c r="V19" s="1">
-        <v>19.764238</v>
+        <v>19.764237999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>954.853000</v>
+        <v>954.85299999999995</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.037700</v>
+        <v>-89.037700000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>71161.832558</v>
+        <v>71161.832557999995</v>
       </c>
       <c r="AA19" s="1">
-        <v>19.767176</v>
+        <v>19.767175999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>962.325000</v>
+        <v>962.32500000000005</v>
       </c>
       <c r="AC19" s="1">
-        <v>-79.947500</v>
+        <v>-79.947500000000005</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>71172.366591</v>
+        <v>71172.366590999998</v>
       </c>
       <c r="AF19" s="1">
-        <v>19.770102</v>
+        <v>19.770102000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>967.548000</v>
+        <v>967.548</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.620200</v>
+        <v>-79.620199999999997</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>71182.587018</v>
+        <v>71182.587018000006</v>
       </c>
       <c r="AK19" s="1">
-        <v>19.772941</v>
+        <v>19.772940999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>975.584000</v>
+        <v>975.58399999999995</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.281100</v>
+        <v>-87.281099999999995</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>71193.094406</v>
+        <v>71193.094406000004</v>
       </c>
       <c r="AP19" s="1">
-        <v>19.775860</v>
+        <v>19.775860000000002</v>
       </c>
       <c r="AQ19" s="1">
-        <v>984.801000</v>
+        <v>984.80100000000004</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.028000</v>
+        <v>-102.02800000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>71204.566870</v>
+        <v>71204.566869999995</v>
       </c>
       <c r="AU19" s="1">
-        <v>19.779046</v>
+        <v>19.779046000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>996.163000</v>
+        <v>996.16300000000001</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.409000</v>
+        <v>-123.40900000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>71215.576566</v>
+        <v>71215.576566000003</v>
       </c>
       <c r="AZ19" s="1">
-        <v>19.782105</v>
+        <v>19.782105000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1005.780000</v>
+        <v>1005.78</v>
       </c>
       <c r="BB19" s="1">
-        <v>-142.016000</v>
+        <v>-142.01599999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>71226.664632</v>
       </c>
       <c r="BE19" s="1">
-        <v>19.785185</v>
+        <v>19.785184999999998</v>
       </c>
       <c r="BF19" s="1">
-        <v>1050.980000</v>
+        <v>1050.98</v>
       </c>
       <c r="BG19" s="1">
-        <v>-226.246000</v>
+        <v>-226.24600000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>71237.898026</v>
+        <v>71237.898025999995</v>
       </c>
       <c r="BJ19" s="1">
-        <v>19.788305</v>
+        <v>19.788305000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1130.570000</v>
+        <v>1130.57</v>
       </c>
       <c r="BL19" s="1">
-        <v>-360.898000</v>
+        <v>-360.89800000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>71249.199866</v>
+        <v>71249.199865999995</v>
       </c>
       <c r="BO19" s="1">
-        <v>19.791444</v>
+        <v>19.791443999999998</v>
       </c>
       <c r="BP19" s="1">
-        <v>1261.940000</v>
+        <v>1261.94</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-567.877000</v>
+        <v>-567.87699999999995</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>71260.506172</v>
+        <v>71260.506171999994</v>
       </c>
       <c r="BT19" s="1">
-        <v>19.794585</v>
+        <v>19.794585000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1408.510000</v>
+        <v>1408.51</v>
       </c>
       <c r="BV19" s="1">
-        <v>-788.358000</v>
+        <v>-788.35799999999995</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>71271.706828</v>
+        <v>71271.706827999995</v>
       </c>
       <c r="BY19" s="1">
-        <v>19.797696</v>
+        <v>19.797695999999998</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1568.680000</v>
+        <v>1568.68</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1017.490000</v>
+        <v>-1017.49</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>71284.306699</v>
+        <v>71284.306698999993</v>
       </c>
       <c r="CD19" s="1">
-        <v>19.801196</v>
+        <v>19.801196000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1970.350000</v>
+        <v>1970.35</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1552.150000</v>
+        <v>-1552.15</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>71110.169763</v>
+        <v>71110.169762999998</v>
       </c>
       <c r="B20" s="1">
-        <v>19.752825</v>
+        <v>19.752825000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>903.391000</v>
+        <v>903.39099999999996</v>
       </c>
       <c r="D20" s="1">
-        <v>-189.472000</v>
+        <v>-189.47200000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>71120.656678</v>
+        <v>71120.656677999999</v>
       </c>
       <c r="G20" s="1">
-        <v>19.755738</v>
+        <v>19.755738000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>920.104000</v>
+        <v>920.10400000000004</v>
       </c>
       <c r="I20" s="1">
-        <v>-160.840000</v>
+        <v>-160.84</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>71130.830615</v>
+        <v>71130.830614999999</v>
       </c>
       <c r="L20" s="1">
         <v>19.758564</v>
       </c>
       <c r="M20" s="1">
-        <v>941.376000</v>
+        <v>941.37599999999998</v>
       </c>
       <c r="N20" s="1">
-        <v>-116.512000</v>
+        <v>-116.512</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>71141.757547</v>
+        <v>71141.757547000001</v>
       </c>
       <c r="Q20" s="1">
         <v>19.761599</v>
       </c>
       <c r="R20" s="1">
-        <v>948.046000</v>
+        <v>948.04600000000005</v>
       </c>
       <c r="S20" s="1">
-        <v>-102.090000</v>
+        <v>-102.09</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>71151.944811</v>
+        <v>71151.944810999994</v>
       </c>
       <c r="V20" s="1">
         <v>19.764429</v>
       </c>
       <c r="W20" s="1">
-        <v>954.823000</v>
+        <v>954.82299999999998</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.901500</v>
+        <v>-88.901499999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>71162.184258</v>
+        <v>71162.184257999994</v>
       </c>
       <c r="AA20" s="1">
-        <v>19.767273</v>
+        <v>19.767272999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>962.312000</v>
+        <v>962.31200000000001</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.047200</v>
+        <v>-80.047200000000004</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>71172.716272</v>
+        <v>71172.716272000005</v>
       </c>
       <c r="AF20" s="1">
-        <v>19.770199</v>
+        <v>19.770199000000002</v>
       </c>
       <c r="AG20" s="1">
-        <v>967.485000</v>
+        <v>967.48500000000001</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.530800</v>
+        <v>-79.530799999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>71182.937827</v>
+        <v>71182.937827000002</v>
       </c>
       <c r="AK20" s="1">
         <v>19.773038</v>
       </c>
       <c r="AL20" s="1">
-        <v>975.580000</v>
+        <v>975.58</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.266800</v>
+        <v>-87.266800000000003</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>71193.772436</v>
+        <v>71193.772435999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>19.776048</v>
+        <v>19.776047999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>984.803000</v>
+        <v>984.803</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.032000</v>
+        <v>-102.032</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>71204.995910</v>
+        <v>71204.995909999998</v>
       </c>
       <c r="AU20" s="1">
         <v>19.779166</v>
       </c>
       <c r="AV20" s="1">
-        <v>996.173000</v>
+        <v>996.173</v>
       </c>
       <c r="AW20" s="1">
-        <v>-123.398000</v>
+        <v>-123.398</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>71215.975350</v>
+        <v>71215.975349999993</v>
       </c>
       <c r="AZ20" s="1">
-        <v>19.782215</v>
+        <v>19.782215000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1005.770000</v>
+        <v>1005.77</v>
       </c>
       <c r="BB20" s="1">
-        <v>-141.997000</v>
+        <v>-141.99700000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>71227.024263</v>
+        <v>71227.024262999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>19.785285</v>
+        <v>19.785284999999998</v>
       </c>
       <c r="BF20" s="1">
-        <v>1050.980000</v>
+        <v>1050.98</v>
       </c>
       <c r="BG20" s="1">
-        <v>-226.259000</v>
+        <v>-226.25899999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>71238.274488</v>
+        <v>71238.274487999995</v>
       </c>
       <c r="BJ20" s="1">
-        <v>19.788410</v>
+        <v>19.788409999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1130.570000</v>
+        <v>1130.57</v>
       </c>
       <c r="BL20" s="1">
-        <v>-360.891000</v>
+        <v>-360.89100000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>71249.594681</v>
+        <v>71249.594681000002</v>
       </c>
       <c r="BO20" s="1">
-        <v>19.791554</v>
+        <v>19.791554000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1261.960000</v>
+        <v>1261.96</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-567.832000</v>
+        <v>-567.83199999999999</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>71260.938224</v>
+        <v>71260.938223999998</v>
       </c>
       <c r="BT20" s="1">
         <v>19.794705</v>
       </c>
       <c r="BU20" s="1">
-        <v>1408.420000</v>
+        <v>1408.42</v>
       </c>
       <c r="BV20" s="1">
-        <v>-788.385000</v>
+        <v>-788.38499999999999</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>71272.112566</v>
+        <v>71272.112565999996</v>
       </c>
       <c r="BY20" s="1">
-        <v>19.797809</v>
+        <v>19.797809000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1568.840000</v>
+        <v>1568.84</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1017.590000</v>
+        <v>-1017.59</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>71284.826011</v>
+        <v>71284.826010999997</v>
       </c>
       <c r="CD20" s="1">
-        <v>19.801341</v>
+        <v>19.801341000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>1971.080000</v>
+        <v>1971.08</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1552.940000</v>
+        <v>-1552.94</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>71110.512497</v>
+        <v>71110.512497000003</v>
       </c>
       <c r="B21" s="1">
-        <v>19.752920</v>
+        <v>19.75292</v>
       </c>
       <c r="C21" s="1">
-        <v>903.556000</v>
+        <v>903.55600000000004</v>
       </c>
       <c r="D21" s="1">
-        <v>-189.372000</v>
+        <v>-189.37200000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>71121.202275</v>
+        <v>71121.202275000003</v>
       </c>
       <c r="G21" s="1">
-        <v>19.755890</v>
+        <v>19.755890000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>920.030000</v>
+        <v>920.03</v>
       </c>
       <c r="I21" s="1">
-        <v>-160.933000</v>
+        <v>-160.93299999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>71131.522535</v>
+        <v>71131.522534999996</v>
       </c>
       <c r="L21" s="1">
-        <v>19.758756</v>
+        <v>19.758756000000002</v>
       </c>
       <c r="M21" s="1">
-        <v>941.408000</v>
+        <v>941.40800000000002</v>
       </c>
       <c r="N21" s="1">
-        <v>-116.625000</v>
+        <v>-116.625</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>71142.105175</v>
+        <v>71142.105175000004</v>
       </c>
       <c r="Q21" s="1">
-        <v>19.761696</v>
+        <v>19.761696000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>948.063000</v>
+        <v>948.06299999999999</v>
       </c>
       <c r="S21" s="1">
-        <v>-102.066000</v>
+        <v>-102.066</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>71152.288043</v>
+        <v>71152.288042999993</v>
       </c>
       <c r="V21" s="1">
-        <v>19.764524</v>
+        <v>19.764524000000002</v>
       </c>
       <c r="W21" s="1">
-        <v>954.759000</v>
+        <v>954.75900000000001</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.918300</v>
+        <v>-88.918300000000002</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>71162.531916</v>
+        <v>71162.531916000007</v>
       </c>
       <c r="AA21" s="1">
-        <v>19.767370</v>
+        <v>19.76737</v>
       </c>
       <c r="AB21" s="1">
-        <v>962.373000</v>
+        <v>962.37300000000005</v>
       </c>
       <c r="AC21" s="1">
-        <v>-79.939100</v>
+        <v>-79.939099999999996</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>71173.374960</v>
+        <v>71173.374960000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>19.770382</v>
+        <v>19.770382000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>967.475000</v>
+        <v>967.47500000000002</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.579200</v>
+        <v>-79.5792</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>71183.609437</v>
+        <v>71183.609437000006</v>
       </c>
       <c r="AK21" s="1">
         <v>19.773225</v>
       </c>
       <c r="AL21" s="1">
-        <v>975.578000</v>
+        <v>975.57799999999997</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.255400</v>
+        <v>-87.255399999999995</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>71194.175218</v>
+        <v>71194.175218000004</v>
       </c>
       <c r="AP21" s="1">
-        <v>19.776160</v>
+        <v>19.776160000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>984.794000</v>
+        <v>984.79399999999998</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.049000</v>
+        <v>-102.04900000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>71205.359973</v>
+        <v>71205.359972999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>19.779267</v>
+        <v>19.779267000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>996.166000</v>
+        <v>996.16600000000005</v>
       </c>
       <c r="AW21" s="1">
-        <v>-123.404000</v>
+        <v>-123.404</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>71216.351846</v>
+        <v>71216.351846000005</v>
       </c>
       <c r="AZ21" s="1">
-        <v>19.782320</v>
+        <v>19.782319999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1005.770000</v>
+        <v>1005.77</v>
       </c>
       <c r="BB21" s="1">
-        <v>-141.993000</v>
+        <v>-141.99299999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>71227.386807</v>
+        <v>71227.386807000003</v>
       </c>
       <c r="BE21" s="1">
-        <v>19.785385</v>
+        <v>19.785385000000002</v>
       </c>
       <c r="BF21" s="1">
-        <v>1050.980000</v>
+        <v>1050.98</v>
       </c>
       <c r="BG21" s="1">
-        <v>-226.224000</v>
+        <v>-226.22399999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>71238.711465</v>
       </c>
       <c r="BJ21" s="1">
-        <v>19.788531</v>
+        <v>19.788530999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1130.540000</v>
+        <v>1130.54</v>
       </c>
       <c r="BL21" s="1">
-        <v>-360.898000</v>
+        <v>-360.89800000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>71250.028682</v>
+        <v>71250.028682000004</v>
       </c>
       <c r="BO21" s="1">
-        <v>19.791675</v>
+        <v>19.791675000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1261.900000</v>
+        <v>1261.9000000000001</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-567.855000</v>
+        <v>-567.85500000000002</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>71261.367257</v>
+        <v>71261.367257000005</v>
       </c>
       <c r="BT21" s="1">
-        <v>19.794824</v>
+        <v>19.794823999999998</v>
       </c>
       <c r="BU21" s="1">
-        <v>1408.480000</v>
+        <v>1408.48</v>
       </c>
       <c r="BV21" s="1">
-        <v>-788.398000</v>
+        <v>-788.39800000000002</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>71272.558492</v>
+        <v>71272.558491999996</v>
       </c>
       <c r="BY21" s="1">
         <v>19.797933</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1568.780000</v>
+        <v>1568.78</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1017.340000</v>
+        <v>-1017.34</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>71285.377066</v>
+        <v>71285.377066000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>19.801494</v>
+        <v>19.801494000000002</v>
       </c>
       <c r="CE21" s="1">
-        <v>1971.340000</v>
+        <v>1971.34</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1554.160000</v>
+        <v>-1554.16</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>71111.192016</v>
+        <v>71111.192016000001</v>
       </c>
       <c r="B22" s="1">
-        <v>19.753109</v>
+        <v>19.753108999999998</v>
       </c>
       <c r="C22" s="1">
-        <v>903.493000</v>
+        <v>903.49300000000005</v>
       </c>
       <c r="D22" s="1">
-        <v>-189.353000</v>
+        <v>-189.35300000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>71121.344132</v>
+        <v>71121.344131999998</v>
       </c>
       <c r="G22" s="1">
-        <v>19.755929</v>
+        <v>19.755928999999998</v>
       </c>
       <c r="H22" s="1">
-        <v>919.330000</v>
+        <v>919.33</v>
       </c>
       <c r="I22" s="1">
-        <v>-161.123000</v>
+        <v>-161.12299999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>71131.874693</v>
+        <v>71131.874693000005</v>
       </c>
       <c r="L22" s="1">
-        <v>19.758854</v>
+        <v>19.758853999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>941.403000</v>
+        <v>941.40300000000002</v>
       </c>
       <c r="N22" s="1">
-        <v>-116.607000</v>
+        <v>-116.607</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>71142.454359</v>
+        <v>71142.454358999996</v>
       </c>
       <c r="Q22" s="1">
-        <v>19.761793</v>
+        <v>19.761793000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>948.018000</v>
+        <v>948.01800000000003</v>
       </c>
       <c r="S22" s="1">
-        <v>-102.063000</v>
+        <v>-102.063</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>71152.631770</v>
+        <v>71152.631770000007</v>
       </c>
       <c r="V22" s="1">
-        <v>19.764620</v>
+        <v>19.764620000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>954.957000</v>
+        <v>954.95699999999999</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.952700</v>
+        <v>-88.952699999999993</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>71163.203500</v>
+        <v>71163.203500000003</v>
       </c>
       <c r="AA22" s="1">
         <v>19.767557</v>
       </c>
       <c r="AB22" s="1">
-        <v>962.307000</v>
+        <v>962.30700000000002</v>
       </c>
       <c r="AC22" s="1">
-        <v>-79.916400</v>
+        <v>-79.916399999999996</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>71173.747950</v>
+        <v>71173.747950000004</v>
       </c>
       <c r="AF22" s="1">
-        <v>19.770486</v>
+        <v>19.770485999999998</v>
       </c>
       <c r="AG22" s="1">
-        <v>967.469000</v>
+        <v>967.46900000000005</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.618200</v>
+        <v>-79.618200000000002</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>71183.982896</v>
+        <v>71183.982896000001</v>
       </c>
       <c r="AK22" s="1">
         <v>19.773329</v>
       </c>
       <c r="AL22" s="1">
-        <v>975.588000</v>
+        <v>975.58799999999997</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.237400</v>
+        <v>-87.237399999999994</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>71194.558594</v>
+        <v>71194.558594000002</v>
       </c>
       <c r="AP22" s="1">
         <v>19.776266</v>
       </c>
       <c r="AQ22" s="1">
-        <v>984.792000</v>
+        <v>984.79200000000003</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.039000</v>
+        <v>-102.039</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>71205.724037</v>
+        <v>71205.724037000007</v>
       </c>
       <c r="AU22" s="1">
-        <v>19.779368</v>
+        <v>19.779368000000002</v>
       </c>
       <c r="AV22" s="1">
-        <v>996.160000</v>
+        <v>996.16</v>
       </c>
       <c r="AW22" s="1">
-        <v>-123.393000</v>
+        <v>-123.393</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>71216.730758</v>
+        <v>71216.730758000005</v>
       </c>
       <c r="AZ22" s="1">
         <v>19.782425</v>
       </c>
       <c r="BA22" s="1">
-        <v>1005.790000</v>
+        <v>1005.79</v>
       </c>
       <c r="BB22" s="1">
-        <v>-141.994000</v>
+        <v>-141.994</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>71227.814854</v>
+        <v>71227.814853999997</v>
       </c>
       <c r="BE22" s="1">
         <v>19.785504</v>
       </c>
       <c r="BF22" s="1">
-        <v>1050.990000</v>
+        <v>1050.99</v>
       </c>
       <c r="BG22" s="1">
-        <v>-226.229000</v>
+        <v>-226.22900000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>71239.030887</v>
+        <v>71239.030887000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>19.788620</v>
+        <v>19.788620000000002</v>
       </c>
       <c r="BK22" s="1">
-        <v>1130.550000</v>
+        <v>1130.55</v>
       </c>
       <c r="BL22" s="1">
-        <v>-360.942000</v>
+        <v>-360.94200000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>71250.423993</v>
+        <v>71250.423993000004</v>
       </c>
       <c r="BO22" s="1">
         <v>19.791784</v>
       </c>
       <c r="BP22" s="1">
-        <v>1261.940000</v>
+        <v>1261.94</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-567.887000</v>
+        <v>-567.88699999999994</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>71261.777915</v>
+        <v>71261.777914999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>19.794938</v>
+        <v>19.794937999999998</v>
       </c>
       <c r="BU22" s="1">
-        <v>1408.320000</v>
+        <v>1408.32</v>
       </c>
       <c r="BV22" s="1">
-        <v>-788.367000</v>
+        <v>-788.36699999999996</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>71272.991498</v>
+        <v>71272.991498000003</v>
       </c>
       <c r="BY22" s="1">
-        <v>19.798053</v>
+        <v>19.798052999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1568.610000</v>
+        <v>1568.61</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1017.390000</v>
+        <v>-1017.39</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>71285.907289</v>
+        <v>71285.907288999995</v>
       </c>
       <c r="CD22" s="1">
         <v>19.801641</v>
       </c>
       <c r="CE22" s="1">
-        <v>1971.000000</v>
+        <v>1971</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1552.430000</v>
+        <v>-1552.43</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>71111.539248</v>
+        <v>71111.539248000001</v>
       </c>
       <c r="B23" s="1">
-        <v>19.753205</v>
+        <v>19.753205000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>903.549000</v>
+        <v>903.54899999999998</v>
       </c>
       <c r="D23" s="1">
-        <v>-189.534000</v>
+        <v>-189.53399999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>71121.692818</v>
+        <v>71121.692817999996</v>
       </c>
       <c r="G23" s="1">
-        <v>19.756026</v>
+        <v>19.756025999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>919.480000</v>
+        <v>919.48</v>
       </c>
       <c r="I23" s="1">
-        <v>-160.900000</v>
+        <v>-160.9</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>71132.218458</v>
+        <v>71132.218458000003</v>
       </c>
       <c r="L23" s="1">
-        <v>19.758950</v>
+        <v>19.758949999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>941.280000</v>
+        <v>941.28</v>
       </c>
       <c r="N23" s="1">
-        <v>-116.528000</v>
+        <v>-116.52800000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>71143.118999</v>
+        <v>71143.118998999998</v>
       </c>
       <c r="Q23" s="1">
-        <v>19.761977</v>
+        <v>19.761977000000002</v>
       </c>
       <c r="R23" s="1">
-        <v>948.140000</v>
+        <v>948.14</v>
       </c>
       <c r="S23" s="1">
-        <v>-102.085000</v>
+        <v>-102.08499999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>71153.320254</v>
+        <v>71153.320254000006</v>
       </c>
       <c r="V23" s="1">
-        <v>19.764811</v>
+        <v>19.764811000000002</v>
       </c>
       <c r="W23" s="1">
-        <v>954.729000</v>
+        <v>954.72900000000004</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.976800</v>
+        <v>-88.976799999999997</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>71163.579004</v>
+        <v>71163.579003999999</v>
       </c>
       <c r="AA23" s="1">
         <v>19.767661</v>
       </c>
       <c r="AB23" s="1">
-        <v>962.362000</v>
+        <v>962.36199999999997</v>
       </c>
       <c r="AC23" s="1">
-        <v>-79.901600</v>
+        <v>-79.901600000000002</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>71174.091677</v>
+        <v>71174.091677000004</v>
       </c>
       <c r="AF23" s="1">
         <v>19.770581</v>
       </c>
       <c r="AG23" s="1">
-        <v>967.497000</v>
+        <v>967.49699999999996</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.578800</v>
+        <v>-79.578800000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>71184.332576</v>
+        <v>71184.332576000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>19.773426</v>
+        <v>19.773426000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>975.588000</v>
+        <v>975.58799999999997</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.245300</v>
+        <v>-87.2453</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>71194.919358</v>
+        <v>71194.919357999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>19.776366</v>
+        <v>19.776365999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>984.808000</v>
+        <v>984.80799999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.049000</v>
+        <v>-102.04900000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>71206.161508</v>
+        <v>71206.161508000005</v>
       </c>
       <c r="AU23" s="1">
-        <v>19.779489</v>
+        <v>19.779489000000002</v>
       </c>
       <c r="AV23" s="1">
-        <v>996.158000</v>
+        <v>996.15800000000002</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.398000</v>
+        <v>-123.398</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>71217.163764</v>
+        <v>71217.163763999997</v>
       </c>
       <c r="AZ23" s="1">
-        <v>19.782545</v>
+        <v>19.782544999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1005.760000</v>
+        <v>1005.76</v>
       </c>
       <c r="BB23" s="1">
-        <v>-141.995000</v>
+        <v>-141.995</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>71228.109479</v>
+        <v>71228.109479000006</v>
       </c>
       <c r="BE23" s="1">
-        <v>19.785586</v>
+        <v>19.785585999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1050.990000</v>
+        <v>1050.99</v>
       </c>
       <c r="BG23" s="1">
-        <v>-226.255000</v>
+        <v>-226.255</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>71239.420743</v>
+        <v>71239.420742999995</v>
       </c>
       <c r="BJ23" s="1">
-        <v>19.788728</v>
+        <v>19.788727999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1130.550000</v>
+        <v>1130.55</v>
       </c>
       <c r="BL23" s="1">
-        <v>-360.913000</v>
+        <v>-360.91300000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>71250.835671</v>
+        <v>71250.835670999993</v>
       </c>
       <c r="BO23" s="1">
-        <v>19.791899</v>
+        <v>19.791899000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1261.970000</v>
+        <v>1261.97</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-567.868000</v>
+        <v>-567.86800000000005</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>71262.208970</v>
+        <v>71262.208970000007</v>
       </c>
       <c r="BT23" s="1">
-        <v>19.795058</v>
+        <v>19.795058000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1408.310000</v>
+        <v>1408.31</v>
       </c>
       <c r="BV23" s="1">
-        <v>-788.293000</v>
+        <v>-788.29300000000001</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>71273.421532</v>
+        <v>71273.421531999993</v>
       </c>
       <c r="BY23" s="1">
-        <v>19.798173</v>
+        <v>19.798172999999998</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1568.850000</v>
+        <v>1568.85</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1017.430000</v>
+        <v>-1017.43</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>71286.422670</v>
+        <v>71286.42267</v>
       </c>
       <c r="CD23" s="1">
-        <v>19.801784</v>
+        <v>19.801784000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>1969.510000</v>
+        <v>1969.51</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1552.980000</v>
+        <v>-1552.98</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>71111.878976</v>
+        <v>71111.878976000007</v>
       </c>
       <c r="B24" s="1">
-        <v>19.753300</v>
+        <v>19.753299999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>903.517000</v>
+        <v>903.51700000000005</v>
       </c>
       <c r="D24" s="1">
-        <v>-189.672000</v>
+        <v>-189.672</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>71122.352499</v>
+        <v>71122.352499000001</v>
       </c>
       <c r="G24" s="1">
-        <v>19.756209</v>
+        <v>19.756208999999998</v>
       </c>
       <c r="H24" s="1">
-        <v>919.493000</v>
+        <v>919.49300000000005</v>
       </c>
       <c r="I24" s="1">
-        <v>-161.261000</v>
+        <v>-161.261</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>71132.884052</v>
+        <v>71132.884051999994</v>
       </c>
       <c r="L24" s="1">
         <v>19.759134</v>
       </c>
       <c r="M24" s="1">
-        <v>941.571000</v>
+        <v>941.57100000000003</v>
       </c>
       <c r="N24" s="1">
-        <v>-116.757000</v>
+        <v>-116.75700000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>71143.499926</v>
+        <v>71143.499926000004</v>
       </c>
       <c r="Q24" s="1">
-        <v>19.762083</v>
+        <v>19.762083000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>948.085000</v>
+        <v>948.08500000000004</v>
       </c>
       <c r="S24" s="1">
-        <v>-102.117000</v>
+        <v>-102.117</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>71153.670430</v>
+        <v>71153.670429999998</v>
       </c>
       <c r="V24" s="1">
-        <v>19.764908</v>
+        <v>19.764907999999998</v>
       </c>
       <c r="W24" s="1">
-        <v>954.839000</v>
+        <v>954.83900000000006</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.158700</v>
+        <v>-89.158699999999996</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>71163.925675</v>
+        <v>71163.925675000006</v>
       </c>
       <c r="AA24" s="1">
         <v>19.767757</v>
       </c>
       <c r="AB24" s="1">
-        <v>962.344000</v>
+        <v>962.34400000000005</v>
       </c>
       <c r="AC24" s="1">
-        <v>-79.916000</v>
+        <v>-79.915999999999997</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>71174.433421</v>
+        <v>71174.433420999994</v>
       </c>
       <c r="AF24" s="1">
-        <v>19.770676</v>
+        <v>19.770676000000002</v>
       </c>
       <c r="AG24" s="1">
-        <v>967.511000</v>
+        <v>967.51099999999997</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.575100</v>
+        <v>-79.575100000000006</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>71184.684239</v>
+        <v>71184.684238999995</v>
       </c>
       <c r="AK24" s="1">
-        <v>19.773523</v>
+        <v>19.773523000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>975.567000</v>
+        <v>975.56700000000001</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.250800</v>
+        <v>-87.250799999999998</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>71195.347233</v>
+        <v>71195.347232999993</v>
       </c>
       <c r="AP24" s="1">
-        <v>19.776485</v>
+        <v>19.776485000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>984.803000</v>
+        <v>984.803</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.043000</v>
+        <v>-102.04300000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>71206.456626</v>
+        <v>71206.456625999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>19.779571</v>
+        <v>19.779571000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>996.168000</v>
+        <v>996.16800000000001</v>
       </c>
       <c r="AW24" s="1">
-        <v>-123.402000</v>
+        <v>-123.402</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>71217.447476</v>
+        <v>71217.447476000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>19.782624</v>
+        <v>19.782623999999998</v>
       </c>
       <c r="BA24" s="1">
-        <v>1005.770000</v>
+        <v>1005.77</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.032000</v>
+        <v>-142.03200000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>71228.471558</v>
+        <v>71228.471558000005</v>
       </c>
       <c r="BE24" s="1">
-        <v>19.785687</v>
+        <v>19.785686999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1051.010000</v>
+        <v>1051.01</v>
       </c>
       <c r="BG24" s="1">
-        <v>-226.225000</v>
+        <v>-226.22499999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>71239.798695</v>
+        <v>71239.798695000005</v>
       </c>
       <c r="BJ24" s="1">
         <v>19.788833</v>
       </c>
       <c r="BK24" s="1">
-        <v>1130.560000</v>
+        <v>1130.56</v>
       </c>
       <c r="BL24" s="1">
-        <v>-360.926000</v>
+        <v>-360.92599999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>71251.228504</v>
+        <v>71251.228503999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>19.792008</v>
+        <v>19.792007999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1261.920000</v>
+        <v>1261.92</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-567.861000</v>
+        <v>-567.86099999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>71262.638003</v>
       </c>
       <c r="BT24" s="1">
-        <v>19.795177</v>
+        <v>19.795176999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1408.290000</v>
+        <v>1408.29</v>
       </c>
       <c r="BV24" s="1">
-        <v>-788.235000</v>
+        <v>-788.23500000000001</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>71273.843129</v>
+        <v>71273.843129000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>19.798290</v>
+        <v>19.798290000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1568.810000</v>
+        <v>1568.81</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1017.380000</v>
+        <v>-1017.38</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>71286.943936</v>
+        <v>71286.943935999996</v>
       </c>
       <c r="CD24" s="1">
-        <v>19.801929</v>
+        <v>19.801929000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1970.020000</v>
+        <v>1970.02</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1554.110000</v>
+        <v>-1554.11</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>71112.538190</v>
+        <v>71112.538190000007</v>
       </c>
       <c r="B25" s="1">
-        <v>19.753483</v>
+        <v>19.753482999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>903.440000</v>
+        <v>903.44</v>
       </c>
       <c r="D25" s="1">
-        <v>-189.207000</v>
+        <v>-189.20699999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>71122.724498</v>
+        <v>71122.724497999996</v>
       </c>
       <c r="G25" s="1">
-        <v>19.756312</v>
+        <v>19.756312000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>919.088000</v>
+        <v>919.08799999999997</v>
       </c>
       <c r="I25" s="1">
-        <v>-161.508000</v>
+        <v>-161.50800000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>71133.253571</v>
+        <v>71133.253570999994</v>
       </c>
       <c r="L25" s="1">
-        <v>19.759237</v>
+        <v>19.759236999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>941.480000</v>
+        <v>941.48</v>
       </c>
       <c r="N25" s="1">
-        <v>-116.578000</v>
+        <v>-116.578</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>71143.849141</v>
+        <v>71143.849140999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>19.762180</v>
+        <v>19.762180000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>948.104000</v>
+        <v>948.10400000000004</v>
       </c>
       <c r="S25" s="1">
-        <v>-102.093000</v>
+        <v>-102.093</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>71154.018088</v>
+        <v>71154.018087999997</v>
       </c>
       <c r="V25" s="1">
-        <v>19.765005</v>
+        <v>19.765004999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>954.712000</v>
+        <v>954.71199999999999</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.984200</v>
+        <v>-88.984200000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>71164.272876</v>
+        <v>71164.272876000003</v>
       </c>
       <c r="AA25" s="1">
         <v>19.767854</v>
       </c>
       <c r="AB25" s="1">
-        <v>962.286000</v>
+        <v>962.28599999999994</v>
       </c>
       <c r="AC25" s="1">
-        <v>-79.915300</v>
+        <v>-79.915300000000002</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>71174.858530</v>
+        <v>71174.858529999998</v>
       </c>
       <c r="AF25" s="1">
-        <v>19.770794</v>
+        <v>19.770793999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>967.508000</v>
+        <v>967.50800000000004</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.539400</v>
+        <v>-79.539400000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>71185.111792</v>
+        <v>71185.111791999996</v>
       </c>
       <c r="AK25" s="1">
-        <v>19.773642</v>
+        <v>19.773641999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>975.562000</v>
+        <v>975.56200000000001</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.263000</v>
+        <v>-87.263000000000005</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>71195.639874</v>
@@ -6512,392 +6928,393 @@
         <v>19.776567</v>
       </c>
       <c r="AQ25" s="1">
-        <v>984.813000</v>
+        <v>984.81299999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.043000</v>
+        <v>-102.04300000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>71206.821713</v>
+        <v>71206.821712999998</v>
       </c>
       <c r="AU25" s="1">
-        <v>19.779673</v>
+        <v>19.779672999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>996.173000</v>
+        <v>996.173</v>
       </c>
       <c r="AW25" s="1">
-        <v>-123.418000</v>
+        <v>-123.41800000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>71217.805589</v>
+        <v>71217.805588999996</v>
       </c>
       <c r="AZ25" s="1">
-        <v>19.782724</v>
+        <v>19.782724000000002</v>
       </c>
       <c r="BA25" s="1">
-        <v>1005.760000</v>
+        <v>1005.76</v>
       </c>
       <c r="BB25" s="1">
-        <v>-141.992000</v>
+        <v>-141.99199999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>71228.832949</v>
+        <v>71228.832949000003</v>
       </c>
       <c r="BE25" s="1">
-        <v>19.785787</v>
+        <v>19.785786999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1050.990000</v>
+        <v>1050.99</v>
       </c>
       <c r="BG25" s="1">
-        <v>-226.226000</v>
+        <v>-226.226</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>71240.547654</v>
+        <v>71240.547653999995</v>
       </c>
       <c r="BJ25" s="1">
-        <v>19.789041</v>
+        <v>19.789041000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1130.560000</v>
+        <v>1130.56</v>
       </c>
       <c r="BL25" s="1">
-        <v>-360.890000</v>
+        <v>-360.89</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>71252.049879</v>
+        <v>71252.049878999998</v>
       </c>
       <c r="BO25" s="1">
-        <v>19.792236</v>
+        <v>19.792235999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1261.960000</v>
+        <v>1261.96</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-567.858000</v>
+        <v>-567.85799999999995</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>71263.048664</v>
+        <v>71263.048664000002</v>
       </c>
       <c r="BT25" s="1">
-        <v>19.795291</v>
+        <v>19.795290999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1408.220000</v>
+        <v>1408.22</v>
       </c>
       <c r="BV25" s="1">
-        <v>-788.191000</v>
+        <v>-788.19100000000003</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>71274.257754</v>
+        <v>71274.257754000006</v>
       </c>
       <c r="BY25" s="1">
-        <v>19.798405</v>
+        <v>19.798404999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1568.790000</v>
+        <v>1568.79</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1017.310000</v>
+        <v>-1017.31</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>71287.788151</v>
+        <v>71287.788151000001</v>
       </c>
       <c r="CD25" s="1">
         <v>19.802163</v>
       </c>
       <c r="CE25" s="1">
-        <v>1971.190000</v>
+        <v>1971.19</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1553.450000</v>
+        <v>-1553.45</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>71112.901726</v>
+        <v>71112.901725999996</v>
       </c>
       <c r="B26" s="1">
         <v>19.753584</v>
       </c>
       <c r="C26" s="1">
-        <v>903.510000</v>
+        <v>903.51</v>
       </c>
       <c r="D26" s="1">
-        <v>-189.345000</v>
+        <v>-189.345</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>71123.067234</v>
+        <v>71123.067234000002</v>
       </c>
       <c r="G26" s="1">
         <v>19.756408</v>
       </c>
       <c r="H26" s="1">
-        <v>919.643000</v>
+        <v>919.64300000000003</v>
       </c>
       <c r="I26" s="1">
-        <v>-161.224000</v>
+        <v>-161.22399999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>71133.601784</v>
+        <v>71133.601783999999</v>
       </c>
       <c r="L26" s="1">
-        <v>19.759334</v>
+        <v>19.759333999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>941.418000</v>
+        <v>941.41800000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-116.549000</v>
+        <v>-116.54900000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>71144.200305</v>
+        <v>71144.200305000006</v>
       </c>
       <c r="Q26" s="1">
-        <v>19.762278</v>
+        <v>19.762277999999998</v>
       </c>
       <c r="R26" s="1">
-        <v>948.047000</v>
+        <v>948.04700000000003</v>
       </c>
       <c r="S26" s="1">
-        <v>-102.075000</v>
+        <v>-102.075</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>71154.450103</v>
+        <v>71154.450102999996</v>
       </c>
       <c r="V26" s="1">
-        <v>19.765125</v>
+        <v>19.765125000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>954.833000</v>
+        <v>954.83299999999997</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.049500</v>
+        <v>-89.049499999999995</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>71164.707402</v>
       </c>
       <c r="AA26" s="1">
-        <v>19.767974</v>
+        <v>19.767973999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>962.371000</v>
+        <v>962.37099999999998</v>
       </c>
       <c r="AC26" s="1">
-        <v>-79.952500</v>
+        <v>-79.952500000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>71175.129341</v>
+        <v>71175.129341000007</v>
       </c>
       <c r="AF26" s="1">
-        <v>19.770869</v>
+        <v>19.770869000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>967.483000</v>
+        <v>967.48299999999995</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.598700</v>
+        <v>-79.598699999999994</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>71185.393022</v>
+        <v>71185.393022000004</v>
       </c>
       <c r="AK26" s="1">
-        <v>19.773720</v>
+        <v>19.773720000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>975.577000</v>
+        <v>975.577</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.278300</v>
+        <v>-87.278300000000002</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>71196.001953</v>
+        <v>71196.001952999999</v>
       </c>
       <c r="AP26" s="1">
         <v>19.776667</v>
       </c>
       <c r="AQ26" s="1">
-        <v>984.814000</v>
+        <v>984.81399999999996</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.046000</v>
+        <v>-102.04600000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>71207.184753</v>
+        <v>71207.184752999994</v>
       </c>
       <c r="AU26" s="1">
         <v>19.779774</v>
       </c>
       <c r="AV26" s="1">
-        <v>996.174000</v>
+        <v>996.17399999999998</v>
       </c>
       <c r="AW26" s="1">
-        <v>-123.412000</v>
+        <v>-123.41200000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>71218.165187</v>
+        <v>71218.165187000006</v>
       </c>
       <c r="AZ26" s="1">
-        <v>19.782824</v>
+        <v>19.782824000000002</v>
       </c>
       <c r="BA26" s="1">
-        <v>1005.770000</v>
+        <v>1005.77</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.005000</v>
+        <v>-142.005</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>71229.555812</v>
+        <v>71229.555812000006</v>
       </c>
       <c r="BE26" s="1">
         <v>19.785988</v>
       </c>
       <c r="BF26" s="1">
-        <v>1050.980000</v>
+        <v>1050.98</v>
       </c>
       <c r="BG26" s="1">
-        <v>-226.235000</v>
+        <v>-226.23500000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>71240.923125</v>
+        <v>71240.923125000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>19.789145</v>
+        <v>19.789145000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1130.550000</v>
+        <v>1130.55</v>
       </c>
       <c r="BL26" s="1">
-        <v>-360.903000</v>
+        <v>-360.90300000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>71252.443701</v>
+        <v>71252.443700999997</v>
       </c>
       <c r="BO26" s="1">
-        <v>19.792345</v>
+        <v>19.792345000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1261.970000</v>
+        <v>1261.97</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-567.878000</v>
+        <v>-567.87800000000004</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>71263.478199</v>
+        <v>71263.478199000005</v>
       </c>
       <c r="BT26" s="1">
-        <v>19.795411</v>
+        <v>19.795411000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1408.290000</v>
+        <v>1408.29</v>
       </c>
       <c r="BV26" s="1">
-        <v>-788.176000</v>
+        <v>-788.17600000000004</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>71274.996803</v>
+        <v>71274.996803000002</v>
       </c>
       <c r="BY26" s="1">
-        <v>19.798610</v>
+        <v>19.79861</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1568.720000</v>
+        <v>1568.72</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1017.320000</v>
+        <v>-1017.32</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>71287.977643</v>
+        <v>71287.977643000006</v>
       </c>
       <c r="CD26" s="1">
-        <v>19.802216</v>
+        <v>19.802216000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1970.410000</v>
+        <v>1970.41</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1552.520000</v>
+        <v>-1552.52</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>